--- a/SMP_PP_e&p.xlsx
+++ b/SMP_PP_e&p.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,6 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -149,10 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ratio^4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -177,15 +172,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -205,11 +192,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>dratio</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>K_p</t>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -458,14 +457,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="1.7000000000000002"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13421083595087163"/>
-                  <c:y val="5.852893028163144E-2"/>
+                  <c:x val="0.1543632852215801"/>
+                  <c:y val="2.8852093985695222E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -505,73 +503,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12411009023196509</c:v>
+                  <c:v>6.6373637182876019E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19072253974779704</c:v>
+                  <c:v>0.110942752570691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2374413363329626</c:v>
+                  <c:v>0.14514604183816554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24947698905508078</c:v>
+                  <c:v>0.16768316172564396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26282564432133221</c:v>
+                  <c:v>0.18467157087340852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3220392153852758</c:v>
+                  <c:v>0.20612339864140558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30494334157999914</c:v>
+                  <c:v>0.21935091768130638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33064525064428962</c:v>
+                  <c:v>0.23277170779629058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29546617235273931</c:v>
+                  <c:v>0.23942090554488499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32816665702320613</c:v>
+                  <c:v>0.24806845926385976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AP$4:$AP$13</c:f>
+              <c:f>Sheet1!$AJ$4:$AJ$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6909538739917969</c:v>
+                  <c:v>9.7738840042036443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6027555746450712</c:v>
+                  <c:v>8.2508169587925995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.546856764002601</c:v>
+                  <c:v>7.3018797173413237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5065378630281099</c:v>
+                  <c:v>6.6559697174068058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4761673190222979</c:v>
+                  <c:v>6.1925309185171971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4520598634137434</c:v>
+                  <c:v>5.8294505820314475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4320845173354098</c:v>
+                  <c:v>5.539719254825064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4156299198831406</c:v>
+                  <c:v>5.312192777550087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4020191233857742</c:v>
+                  <c:v>5.1262911045153903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3905741223861088</c:v>
+                  <c:v>4.9740334426204216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,61 +658,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.28969974695310946</c:v>
+                  <c:v>0.17872746124239833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24886395341707321</c:v>
+                  <c:v>0.19878146460548027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36833322513576033</c:v>
+                  <c:v>0.23809968777422619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3878220877489264</c:v>
+                  <c:v>0.26675376627979375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42426694752232513</c:v>
+                  <c:v>0.29239247277710401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4293248471727919</c:v>
+                  <c:v>0.31158299001978484</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43167352070841503</c:v>
+                  <c:v>0.32653663827628593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46231267287616296</c:v>
+                  <c:v>0.34162324274214445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$AP$5:$AP$12</c:f>
+              <c:f>[1]Sheet1!$AJ$5:$AJ$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.7322564764106896</c:v>
+                  <c:v>11.151610876649848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6671504107658244</c:v>
+                  <c:v>9.8394279946711976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6235078267812537</c:v>
+                  <c:v>8.9826393000799953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5909360061713129</c:v>
+                  <c:v>8.3527794370607289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5660912330976451</c:v>
+                  <c:v>7.9097214262736575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5470482432552271</c:v>
+                  <c:v>7.5696355831523254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5317723436675272</c:v>
+                  <c:v>7.303439964180833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.518649905691144</c:v>
+                  <c:v>7.06542338325524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,8 +760,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14074907880678256"/>
-                  <c:y val="8.2878271563305211E-2"/>
+                  <c:x val="0.13822904310321266"/>
+                  <c:y val="3.8275029614190818E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -803,97 +801,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-4.5444225039413991E-2</c:v>
+                  <c:v>-2.1895644143307781E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6460783240644582E-2</c:v>
+                  <c:v>2.0875861810211605E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.6585791878108835E-2</c:v>
+                  <c:v>5.9947879175552519E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15468043846794832</c:v>
+                  <c:v>3.868181143293406E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.7444999005097835E-2</c:v>
+                  <c:v>2.2239097334903039E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18468715528136079</c:v>
+                  <c:v>4.7968860820986864E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3728361180953165E-2</c:v>
+                  <c:v>5.4072349075828322E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11387270641319085</c:v>
+                  <c:v>6.1160683414603824E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20631084567275165</c:v>
+                  <c:v>7.7071487778270484E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15455865949953521</c:v>
+                  <c:v>8.4666932328850739E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14384002374294735</c:v>
+                  <c:v>8.9920598809611063E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13269958398232701</c:v>
+                  <c:v>9.3414713924521081E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19792027106704868</c:v>
+                  <c:v>0.10147064900064615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19978093166421609</c:v>
+                  <c:v>0.10856127497268256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$AP$4:$AP$17</c:f>
+              <c:f>[2]Sheet1!$AJ$4:$AJ$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.6356216271168877</c:v>
+                  <c:v>8.5103085248626336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5440124208187311</c:v>
+                  <c:v>7.0541039445366129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4846589622644111</c:v>
+                  <c:v>6.1618132648045494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4417039812757488</c:v>
+                  <c:v>5.5543506655416293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4090597034444348</c:v>
+                  <c:v>5.1185836264926623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3831153210120573</c:v>
+                  <c:v>4.7816156102478056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3618524601923803</c:v>
+                  <c:v>4.5183374352198342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3442472387769562</c:v>
+                  <c:v>4.3067416055433272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.329224375110359</c:v>
+                  <c:v>4.1286421353061593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3161821183565607</c:v>
+                  <c:v>3.9791317249275808</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3049630913246724</c:v>
+                  <c:v>3.8546136316205919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2951491902278758</c:v>
+                  <c:v>3.7455515748213779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2864551675378204</c:v>
+                  <c:v>3.6520373341150312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2788189027392434</c:v>
+                  <c:v>3.5710667871674415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,8 +939,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15590491795131881"/>
-                  <c:y val="4.2031759613199715E-2"/>
+                  <c:x val="0.19010877283021574"/>
+                  <c:y val="1.6502226687259151E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -982,67 +980,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.17470012257307291</c:v>
+                  <c:v>8.6592508535044424E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16675116251814767</c:v>
+                  <c:v>0.11469024359167217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36570923758713736</c:v>
+                  <c:v>0.18412430033504151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26930372211065978</c:v>
+                  <c:v>0.20222768007438241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38184494119119372</c:v>
+                  <c:v>0.23497736987435044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30719929375597144</c:v>
+                  <c:v>0.24592919269183505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39713728303995188</c:v>
+                  <c:v>0.2663918478354112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38669470267197881</c:v>
+                  <c:v>0.28079082864777344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32681065067050885</c:v>
+                  <c:v>0.28565350355456676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$AP$4:$AP$12</c:f>
+              <c:f>[3]Sheet1!$AJ$4:$AJ$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.7404396115775711</c:v>
+                  <c:v>11.029283131660142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6531141584289157</c:v>
+                  <c:v>9.3564207450334393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5974582636996595</c:v>
+                  <c:v>8.3243962342418119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5583485062903495</c:v>
+                  <c:v>7.6461633555965847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5290331594502045</c:v>
+                  <c:v>7.1409729446232255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5056348650184768</c:v>
+                  <c:v>6.7529279408785516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4865801781327825</c:v>
+                  <c:v>6.445796850129458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.470995298159429</c:v>
+                  <c:v>6.2044656179427848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4584525263146098</c:v>
+                  <c:v>6.0172755513511387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,8 +1088,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15736252990863342"/>
-                  <c:y val="4.6740017028895457E-2"/>
+                  <c:x val="0.20387518225561699"/>
+                  <c:y val="5.6816511973129806E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1131,91 +1129,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9.3757671567143527E-2</c:v>
+                  <c:v>2.7573394041877152E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18631381826487642</c:v>
+                  <c:v>8.5406183997936494E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0498312990989607E-2</c:v>
+                  <c:v>6.0804846032563836E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21799666289562974</c:v>
+                  <c:v>9.5261831682436737E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10060326813489413</c:v>
+                  <c:v>9.6195307156505733E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.244239737207229</c:v>
+                  <c:v>0.11937262837492017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17776778086874845</c:v>
+                  <c:v>0.12716758995037084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16478171135271447</c:v>
+                  <c:v>0.13161878151522965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22151517740011265</c:v>
+                  <c:v>0.14128718175166993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23784262838028775</c:v>
+                  <c:v>0.15075688065182952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24948412813386528</c:v>
+                  <c:v>0.15961529964248958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20309288651299057</c:v>
+                  <c:v>0.16314692217255353</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32020941185176305</c:v>
+                  <c:v>0.17550464028814977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]Sheet1!$AP$4:$AP$16</c:f>
+              <c:f>[4]Sheet1!$AJ$4:$AJ$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.6545991032687406</c:v>
+                  <c:v>8.9231233478896872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5643844234460931</c:v>
+                  <c:v>7.4589002579476258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5063561750312602</c:v>
+                  <c:v>6.5408517058917441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4641809111583908</c:v>
+                  <c:v>5.9192200384914937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4322228418598042</c:v>
+                  <c:v>5.4708515804995139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.406955906635972</c:v>
+                  <c:v>5.1278912742215805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3862244629844778</c:v>
+                  <c:v>4.8550104631250237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3688997705380646</c:v>
+                  <c:v>4.6349132508888031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3542817906462632</c:v>
+                  <c:v>4.4540229875032571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3417561426741769</c:v>
+                  <c:v>4.301964660487112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3310353500514012</c:v>
+                  <c:v>4.176390546437788</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.321816061075151</c:v>
+                  <c:v>4.068841882430303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3139888388488756</c:v>
+                  <c:v>3.9821178597184934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,8 +1261,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.3203399170085667E-2"/>
-                  <c:y val="5.6131030385197969E-2"/>
+                  <c:x val="2.797780778202366E-3"/>
+                  <c:y val="6.4191570076921924E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1304,103 +1302,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.10823439834700059</c:v>
+                  <c:v>-4.6465024530442579E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10323204689932999</c:v>
+                  <c:v>7.9867423158663468E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11708881272683309</c:v>
+                  <c:v>-2.4042442583712215E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10308103601261505</c:v>
+                  <c:v>3.6643524566578422E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.5807528370224913E-2</c:v>
+                  <c:v>-4.932973950305476E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10093867398941214</c:v>
+                  <c:v>1.157166784599452E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.277374684967114E-2</c:v>
+                  <c:v>1.3047951314597864E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2824374977670653E-2</c:v>
+                  <c:v>1.776493849310689E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13529290335262856</c:v>
+                  <c:v>3.0583811480424793E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5872713688878962E-2</c:v>
+                  <c:v>3.4952703646064814E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0374139966384284E-2</c:v>
+                  <c:v>3.9887835900711176E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.7945747104243225E-2</c:v>
+                  <c:v>4.4665141855916156E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5162664289624768E-2</c:v>
+                  <c:v>4.7724823408173883E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15489416172932804</c:v>
+                  <c:v>5.5484856237205275E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11309495762463438</c:v>
+                  <c:v>5.9307125568848124E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[5]Sheet1!$AP$4:$AP$18</c:f>
+              <c:f>[5]Sheet1!$AJ$4:$AJ$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.6235399819788612</c:v>
+                  <c:v>8.2505576928794238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.530953324207476</c:v>
+                  <c:v>6.805175075321956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4707244592370008</c:v>
+                  <c:v>5.9258721918420578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4273635832401048</c:v>
+                  <c:v>5.3326451134334727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3943094247322672</c:v>
+                  <c:v>4.9020523295982743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.367903658004811</c:v>
+                  <c:v>4.5707346325188603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3462471260541777</c:v>
+                  <c:v>4.310990629646497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3281775970539018</c:v>
+                  <c:v>4.1003129562455118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3128555638706789</c:v>
+                  <c:v>3.9274057902103929</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.299624236942982</c:v>
+                  <c:v>3.780311704343732</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2879526989524848</c:v>
+                  <c:v>3.6533616335326289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2777264128670414</c:v>
+                  <c:v>3.546203292544488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2687561598004613</c:v>
+                  <c:v>3.4528127862433831</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2607418217171571</c:v>
+                  <c:v>3.3706654309529607</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2535900285927311</c:v>
+                  <c:v>3.2989793993605172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,11 +1413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="312385776"/>
-        <c:axId val="312386336"/>
+        <c:axId val="273797456"/>
+        <c:axId val="273798016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312385776"/>
+        <c:axId val="273797456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,12 +1474,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312386336"/>
+        <c:crossAx val="273798016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="312386336"/>
+        <c:axId val="273798016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -1539,7 +1537,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312385776"/>
+        <c:crossAx val="273797456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1583,7 +1581,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2778,11 +2776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="314994144"/>
-        <c:axId val="314994704"/>
+        <c:axId val="274007008"/>
+        <c:axId val="274054272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="314994144"/>
+        <c:axId val="274007008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -2840,12 +2838,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314994704"/>
+        <c:crossAx val="274054272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="314994704"/>
+        <c:axId val="274054272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2904,7 +2902,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314994144"/>
+        <c:crossAx val="274007008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4104,11 +4102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="314227600"/>
-        <c:axId val="314228160"/>
+        <c:axId val="274272912"/>
+        <c:axId val="274273472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="314227600"/>
+        <c:axId val="274272912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,12 +4163,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314228160"/>
+        <c:crossAx val="274273472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="314228160"/>
+        <c:axId val="274273472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,7 +4225,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314227600"/>
+        <c:crossAx val="274272912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4316,6 +4314,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5421,11 +5420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="314233200"/>
-        <c:axId val="314233760"/>
+        <c:axId val="274429680"/>
+        <c:axId val="274430240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="314233200"/>
+        <c:axId val="274429680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,12 +5481,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314233760"/>
+        <c:crossAx val="274430240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="314233760"/>
+        <c:axId val="274430240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5544,7 +5543,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314233200"/>
+        <c:crossAx val="274429680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5797,40 +5796,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-9.9912079165236393E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.818437321920573E-4</c:v>
+                  <c:v>-9.297893645507585E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10297561494460319</c:v>
+                  <c:v>-0.26346339291530602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.28919673649047706</c:v>
+                  <c:v>-0.50470768860560822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.55183657425098098</c:v>
+                  <c:v>-0.77901084233959894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.84419688322882935</c:v>
+                  <c:v>-1.0754675438559556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.1546939332343289</c:v>
+                  <c:v>-1.4503852543903157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5474539011572663</c:v>
+                  <c:v>-1.8110592228201072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.9207922771986639</c:v>
+                  <c:v>-2.1922020668877007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3064966098928208</c:v>
+                  <c:v>-2.5216814804070466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6364811613856536</c:v>
+                  <c:v>-2.8723409928364947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.9809832399519398</c:v>
+                  <c:v>-3.4119204567004768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5962,37 +5961,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5188497992038585E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5740082678149562E-4</c:v>
+                  <c:v>-0.14344569906364341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11878171915196635</c:v>
+                  <c:v>-0.44709316450860193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.44812505147307841</c:v>
+                  <c:v>-0.73677286041067191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.74835577599896963</c:v>
+                  <c:v>-1.1738933064716637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2021552805565139</c:v>
+                  <c:v>-1.6525850645610833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6955988996609206</c:v>
+                  <c:v>-2.1503569073943143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.1907512788597918</c:v>
+                  <c:v>-2.6320773027980722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.6626062134558128</c:v>
+                  <c:v>-3.0884695398661051</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.1008250360799225</c:v>
+                  <c:v>-3.5879995235852236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.5862433433561169</c:v>
+                  <c:v>-4.1182482565742582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6139,52 +6138,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.4156458709427363E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1440290436111809E-4</c:v>
+                  <c:v>1.6067945065317252E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0914750885428213E-2</c:v>
+                  <c:v>-2.7422703459324797E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.5076846519707106E-2</c:v>
+                  <c:v>-1.2045759921995631E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.5906728785695901E-3</c:v>
+                  <c:v>-0.10716903912271379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.12778555922382823</c:v>
+                  <c:v>-7.9662853745677067E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.1071416820015493E-2</c:v>
+                  <c:v>-0.2120986149868225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.23709709103676474</c:v>
+                  <c:v>-0.28522364329040478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.31714311398157341</c:v>
+                  <c:v>-0.37456053872223666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.41401241416581447</c:v>
+                  <c:v>-0.53804332828629375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.59198777645131639</c:v>
+                  <c:v>-0.6629629679769472</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.72359113779054607</c:v>
+                  <c:v>-0.77738815707083919</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.84106314136271043</c:v>
+                  <c:v>-0.8831604905687318</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.94855444958458224</c:v>
+                  <c:v>-1.0378061195572004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1023878184660132</c:v>
+                  <c:v>-1.1905617030137958</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.2507263555561963</c:v>
+                  <c:v>-2.2125124235299829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6316,37 +6315,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.9875506383538679E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5284172742607702E-4</c:v>
+                  <c:v>-0.10830043129310142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1249310944027326</c:v>
+                  <c:v>-0.23995491538875091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.26540124491343825</c:v>
+                  <c:v>-0.55365847063151163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.60397606737864074</c:v>
+                  <c:v>-0.79383497941053172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.85188824711902078</c:v>
+                  <c:v>-1.1425967469106648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2126785024251074</c:v>
+                  <c:v>-1.4254095783433365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5000408779600385</c:v>
+                  <c:v>-1.7872858748277611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.8651546569579955</c:v>
+                  <c:v>-2.1243203415714205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.1978356624011219</c:v>
+                  <c:v>-2.3798836146536715</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.4484273220377215</c:v>
+                  <c:v>-2.7593568070693166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6490,49 +6489,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.3292368819230625E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0286991172441031E-4</c:v>
+                  <c:v>-4.2214763595324244E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.6903064567766086E-2</c:v>
+                  <c:v>-0.22802696080741641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.29986452851341999</c:v>
+                  <c:v>-0.24561760173310954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.28545725072937495</c:v>
+                  <c:v>-0.52469329457758918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.60719014465319487</c:v>
+                  <c:v>-0.67804966194615723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.7622032526092567</c:v>
+                  <c:v>-1.0291647610292043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1486137710133479</c:v>
+                  <c:v>-1.3006420173659203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.4346008447086953</c:v>
+                  <c:v>-1.5562879070102438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.6979080270518052</c:v>
+                  <c:v>-1.8916723156098922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.0456579075809311</c:v>
+                  <c:v>-2.2496955705564607</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.4118837709430028</c:v>
+                  <c:v>-2.6128108877655114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.7743349654589533</c:v>
+                  <c:v>-2.8976225585392004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.0573167052239105</c:v>
+                  <c:v>-3.3341297230035969</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.4566943178206224</c:v>
+                  <c:v>-5.1809322134181768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6682,55 +6681,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>3.4700305231157957E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4846971352937947E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0862876522664107E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0608412398516558E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0689184303055562E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8733192295169024E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.4579650135115863E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.3853759859940485E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11750779094994979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.23115634062071244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.29746357683794766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.37747126331782882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.46362982258845914</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.53824225239475298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.67424324819213377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.77046234225206334</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2150364136063501E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1185721310357493E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.1922295277035116E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5721171626574837E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8.1944069135534842E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.216627453248954E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-6.0849683540205722E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8.2339058476423144E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.13279211680998931</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.26104147370760905</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.33338289957565476</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.41964315204427305</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.50962247074711386</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.58619265706902346</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.72225722971031825</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.81739054542913059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6745,11 +6744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="315371792"/>
-        <c:axId val="315372352"/>
+        <c:axId val="274673072"/>
+        <c:axId val="274673632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="315371792"/>
+        <c:axId val="274673072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,12 +6805,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315372352"/>
+        <c:crossAx val="274673632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="315372352"/>
+        <c:axId val="274673632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6868,7 +6867,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315371792"/>
+        <c:crossAx val="274673072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7124,37 +7123,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50553339260132379</c:v>
+                  <c:v>0.56988646369531104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3375161788824745</c:v>
+                  <c:v>1.4008413641532975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3139142584808505</c:v>
+                  <c:v>2.3747688497942305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4200394252976576</c:v>
+                  <c:v>3.477240455294988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5919323124340314</c:v>
+                  <c:v>4.645730879133728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7733126560731165</c:v>
+                  <c:v>5.8236768050951593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9929155775777341</c:v>
+                  <c:v>7.0364901022884929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2172032570759121</c:v>
+                  <c:v>8.2564469844223964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3837233626651493</c:v>
+                  <c:v>9.4178200935235648</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.500550202317317</c:v>
+                  <c:v>10.532419776243387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.550328024632535</c:v>
+                  <c:v>11.578823851126151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7289,34 +7288,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28232444036357118</c:v>
+                  <c:v>0.45179741076412522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2059004074278832</c:v>
+                  <c:v>1.3701905747154026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3427441077933491</c:v>
+                  <c:v>2.5015359217923097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5491491351326516</c:v>
+                  <c:v>3.706446483191673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7811843510442298</c:v>
+                  <c:v>4.9302597472735377</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0535296730153165</c:v>
+                  <c:v>6.1951705035261329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2206071040773159</c:v>
+                  <c:v>7.3543511122927194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3196698247730776</c:v>
+                  <c:v>8.447435794331847</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3348324456003944</c:v>
+                  <c:v>9.4582634162262647</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.384810816853523</c:v>
+                  <c:v>10.502796867054588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7466,49 +7465,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56393365802109807</c:v>
+                  <c:v>0.6126526325892323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.017244237378548</c:v>
+                  <c:v>0.73384208110763738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5977039384515814</c:v>
+                  <c:v>1.3136082097415962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2943179061374162</c:v>
+                  <c:v>2.0093721558890905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0584409427407171</c:v>
+                  <c:v>2.7705279342597908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8716386660040976</c:v>
+                  <c:v>3.582108236949435</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7164493079734999</c:v>
+                  <c:v>4.4215895761699375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5704706728650812</c:v>
+                  <c:v>5.2748520854979262</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4211512550297627</c:v>
+                  <c:v>6.1242046002514146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.283807610807612</c:v>
+                  <c:v>6.9810943553368032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1352860188461165</c:v>
+                  <c:v>7.8302467060217209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9519711146584999</c:v>
+                  <c:v>8.6452733562951973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.7620061200145649</c:v>
+                  <c:v>9.4541903889180006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.539255302486215</c:v>
+                  <c:v>10.227648386782191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.281761285687377</c:v>
+                  <c:v>10.966725504222174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7643,34 +7642,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45351349580406258</c:v>
+                  <c:v>0.5358666655556884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1700781683777595</c:v>
+                  <c:v>1.2506905403863153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0124719987381221</c:v>
+                  <c:v>2.0921998931579107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9382753082170918</c:v>
+                  <c:v>3.0069820747399878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.858842531712467</c:v>
+                  <c:v>3.9254516449901815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8037031711662062</c:v>
+                  <c:v>4.8625820755490015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7391297212129064</c:v>
+                  <c:v>5.7960161733603757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6584938670395957</c:v>
+                  <c:v>6.7092363724734749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5188133985572794</c:v>
+                  <c:v>7.5654904820135211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2855927526648259</c:v>
+                  <c:v>8.3313650455509158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7817,46 +7816,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54324732645312113</c:v>
+                  <c:v>0.597153749917398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4733678490925839</c:v>
+                  <c:v>1.5309962760192113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6163934492812571</c:v>
+                  <c:v>2.6699115934383131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9887356338217894</c:v>
+                  <c:v>4.0394412248255636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4645971889954836</c:v>
+                  <c:v>5.5079068427604758</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0054328977143312</c:v>
+                  <c:v>7.0486771339375105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5875281080290868</c:v>
+                  <c:v>8.621446767485498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.196295862780442</c:v>
+                  <c:v>10.227779089573978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.794210948026171</c:v>
+                  <c:v>11.82420843814122</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.364080266285123</c:v>
+                  <c:v>13.388845981334295</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.903862541044177</c:v>
+                  <c:v>14.922672589333382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.356665159098782</c:v>
+                  <c:v>16.36942632453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.750026318239414</c:v>
+                  <c:v>17.760816569217955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.997265149500247</c:v>
+                  <c:v>18.99738786125258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8009,52 +8008,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57667000534880608</c:v>
+                  <c:v>0.6224074202883092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0466150361875755</c:v>
+                  <c:v>0.74996132478327326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6579369898143832</c:v>
+                  <c:v>1.3601135598282654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.40645826065587</c:v>
+                  <c:v>2.1049613500086681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2205321367649415</c:v>
+                  <c:v>2.9170731880975134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1016248933930788</c:v>
+                  <c:v>3.797545351726249</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0231345031037442</c:v>
+                  <c:v>4.7166623568450126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9667374630412615</c:v>
+                  <c:v>5.66018052024108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9218468865771428</c:v>
+                  <c:v>6.6145903626711329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8697854237770546</c:v>
+                  <c:v>7.5581273043310588</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8232431604369879</c:v>
+                  <c:v>8.5104597300998499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7777225336371494</c:v>
+                  <c:v>9.4633176955859621</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.696387420710563</c:v>
+                  <c:v>10.380126499632924</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.595492526928311</c:v>
+                  <c:v>11.278035495099742</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.47392829960167</c:v>
+                  <c:v>12.151842753447029</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.315109177307667</c:v>
+                  <c:v>12.991058576218684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8069,11 +8068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="315577408"/>
-        <c:axId val="315577968"/>
+        <c:axId val="274793536"/>
+        <c:axId val="274794096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="315577408"/>
+        <c:axId val="274793536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8130,12 +8129,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315577968"/>
+        <c:crossAx val="274794096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="315577968"/>
+        <c:axId val="274794096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8192,7 +8191,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315577408"/>
+        <c:crossAx val="274793536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8434,52 +8433,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50553339260132379</c:v>
+                  <c:v>0.56988646369531104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3375161788824745</c:v>
+                  <c:v>1.4008413641532975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3139142584808505</c:v>
+                  <c:v>2.3747688497942305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4200394252976576</c:v>
+                  <c:v>3.477240455294988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5919323124340314</c:v>
+                  <c:v>4.645730879133728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7733126560731165</c:v>
+                  <c:v>5.8236768050951593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9929155775777341</c:v>
+                  <c:v>7.0364901022884929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2172032570759121</c:v>
+                  <c:v>8.2564469844223964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3837233626651493</c:v>
+                  <c:v>9.4178200935235648</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.500550202317317</c:v>
+                  <c:v>10.532419776243387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.550328024632535</c:v>
+                  <c:v>11.578823851126151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.445806950091891</c:v>
+                  <c:v>12.459423212281132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.588202533624308</c:v>
+                  <c:v>12.617922800195931</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.558536937619069</c:v>
+                  <c:v>11.690673912622346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.120288043334774</c:v>
+                  <c:v>11.351203698515786</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.586833888508357</c:v>
+                  <c:v>10.844273357361443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8494,11 +8493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="315580208"/>
-        <c:axId val="315580768"/>
+        <c:axId val="274850800"/>
+        <c:axId val="274851360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="315580208"/>
+        <c:axId val="274850800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8555,12 +8554,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315580768"/>
+        <c:crossAx val="274851360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="315580768"/>
+        <c:axId val="274851360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8617,7 +8616,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315580208"/>
+        <c:crossAx val="274850800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8681,6 +8680,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8855,55 +8855,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>-9.9912079165236393E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.297893645507585E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.26346339291530602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.50470768860560822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.77901084233959894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0754675438559556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4503852543903157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8110592228201072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1922020668877007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5216814804070466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.8723409928364947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.4119204567004768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.3268707450124042</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.5211365384614446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.0358825787628758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.9569208555155395</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.818437321920573E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.10297561494460319</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.28919673649047706</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.55183657425098098</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.84419688322882935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.1546939332343289</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.5474539011572663</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.9207922771986639</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.3064966098928208</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.6364811613856536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.9809832399519398</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.444842847889555</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.5780628570302819</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.732796078122635</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.2882989842825916</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.950265083110494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8918,11 +8918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="315583008"/>
-        <c:axId val="315583568"/>
+        <c:axId val="275048896"/>
+        <c:axId val="275049456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="315583008"/>
+        <c:axId val="275048896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8979,12 +8979,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315583568"/>
+        <c:crossAx val="275049456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="315583568"/>
+        <c:axId val="275049456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9041,7 +9041,1259 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315583008"/>
+        <c:crossAx val="275048896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>eq vs ev/eq</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1543632852215801"/>
+                  <c:y val="2.8852093985695222E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$4:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7589948652665472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7416603735437604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7576796987193877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7930546241118881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8349244772073154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.914758087843035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9833701226127234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0780800075120371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.15510136159808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.251465412258712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AI$4:$AI$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.6373637182876019E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.110942752570691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14514604183816554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16768316172564396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18467157087340852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20612339864140558</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21935091768130638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23277170779629058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23942090554488499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24806845926385976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12561699117320771"/>
+                  <c:y val="-8.368023586200124E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AE$4:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5489256315891522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5823189195798366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.616329679161276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.708119553395461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8224228299217398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9544037559349565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.087888554101534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2382312100566431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.393042696659142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AI$4:$AI$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.10469032681343469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17872746124239833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19878146460548027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23809968777422619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26675376627979375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29239247277710401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31158299001978484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32653663827628593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34162324274214445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13822904310321266"/>
+                  <c:y val="3.8275029614190818E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AE$4:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.6467493256652945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5786011719554747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4797714886515165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.46032940890486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3807128307200633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3933386030602106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3773424148796956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3693944476711231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3997601185372393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.42127381778735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.4366759110223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.453888443639299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.494096944178469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.54301115556521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AI$4:$AI$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-2.1895644143307781E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0875861810211605E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9947879175552519E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.868181143293406E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2239097334903039E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7968860820986864E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4072349075828322E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1160683414603824E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7071487778270484E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4666932328850739E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9920598809611063E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3414713924521081E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10147064900064615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10856127497268256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19010877283021574"/>
+                  <c:y val="1.6502226687259151E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AE$3:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86439544855037098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8270880839220307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8131835652496848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8888826306841788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9384663104565565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0396844916037837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1192576157988006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2334755863341869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3529214808213137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.457959603650322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AI$3:$AI$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.1534513416339594E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6592508535044424E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11469024359167217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18412430033504151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20222768007438241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23497736987435044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24592919269183505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2663918478354112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28079082864777344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28565350355456676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20387518225561699"/>
+                  <c:y val="5.6816511973129806E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AE$4:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.6964328109948899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6687025817170649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5894703995944859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5971902850329718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5707389170981036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6047566541380522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6222196992331996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6452885353400131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6871456706652967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.740525300466734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.799224683651081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.842394085569522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.939128383436827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AI$4:$AI$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.7573394041877152E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5406183997936494E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0804846032563836E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5261831682436737E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6195307156505733E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11937262837492017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12716758995037084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13161878151522965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14128718175166993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15075688065182952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15961529964248958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16314692217255353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17550464028814977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.797780778202366E-3"/>
+                  <c:y val="6.4191570076921924E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AE$4:$AE$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.6206165472530574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5471234733867654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4239152124484211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3781385242079391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2990118274572842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2776536759509556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2305419317242237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.203357726998961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2076430177192403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.190712166579036</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.186873665065443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.189923798057709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.186169417201416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.215500696200856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.2256821864807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AI$4:$AI$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-4.6465024530442579E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9867423158663468E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4042442583712215E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6643524566578422E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.932973950305476E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.157166784599452E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3047951314597864E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.776493849310689E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0583811480424793E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4952703646064814E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9887835900711176E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4665141855916156E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7724823408173883E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5484856237205275E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9307125568848124E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="630401200"/>
+        <c:axId val="630400080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="630401200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630400080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="630400080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630401200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9410,6 +10662,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -13023,6 +14315,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13796,6 +15604,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>718456</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>112699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13830,7 +15670,7 @@
             <v>2515.4747919599999</v>
           </cell>
           <cell r="AS2">
-            <v>0</v>
+            <v>2.5188497992038585E-4</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
@@ -13855,14 +15695,23 @@
           <cell r="AE3">
             <v>0.60385484924843991</v>
           </cell>
+          <cell r="AH3">
+            <v>0.6038547705358035</v>
+          </cell>
+          <cell r="AI3">
+            <v>6.698676827069619E-2</v>
+          </cell>
+          <cell r="AJ3">
+            <v>19.333300496197833</v>
+          </cell>
           <cell r="AK3">
             <v>7369.2502595533333</v>
           </cell>
           <cell r="AS3">
-            <v>1.5740082678149562E-4</v>
+            <v>-0.14344569906364341</v>
           </cell>
           <cell r="AU3">
-            <v>0.28232444036357118</v>
+            <v>0.45179741076412522</v>
           </cell>
         </row>
         <row r="4">
@@ -13878,20 +15727,32 @@
           <cell r="M4">
             <v>3.02479383603E-2</v>
           </cell>
+          <cell r="P4">
+            <v>1.6545970663610001</v>
+          </cell>
           <cell r="AD4">
             <v>-0.16215753058077409</v>
           </cell>
           <cell r="AE4">
             <v>1.5489256315891522</v>
           </cell>
+          <cell r="AH4">
+            <v>0.94507078234071229</v>
+          </cell>
+          <cell r="AI4">
+            <v>0.10469032681343469</v>
+          </cell>
+          <cell r="AJ4">
+            <v>13.52826152917463</v>
+          </cell>
           <cell r="AK4">
             <v>25328.292626999999</v>
           </cell>
           <cell r="AS4">
-            <v>-0.11878171915196635</v>
+            <v>-0.44709316450860193</v>
           </cell>
           <cell r="AU4">
-            <v>1.2059004074278832</v>
+            <v>1.3701905747154026</v>
           </cell>
         </row>
         <row r="5">
@@ -13907,26 +15768,35 @@
           <cell r="M5">
             <v>3.9362677192599997E-2</v>
           </cell>
+          <cell r="P5">
+            <v>2.6560478027109999</v>
+          </cell>
           <cell r="AD5">
             <v>-0.46153130461471714</v>
           </cell>
           <cell r="AE5">
             <v>2.5823189195798366</v>
           </cell>
+          <cell r="AH5">
+            <v>1.0333932879906844</v>
+          </cell>
           <cell r="AI5">
-            <v>0.28969974695310946</v>
+            <v>0.17872746124239833</v>
+          </cell>
+          <cell r="AJ5">
+            <v>11.151610876649848</v>
           </cell>
           <cell r="AK5">
             <v>49400.543063766672</v>
           </cell>
           <cell r="AP5">
-            <v>1.7322564764106896</v>
+            <v>1.8274032867570487</v>
           </cell>
           <cell r="AS5">
-            <v>-0.44812505147307841</v>
+            <v>-0.73677286041067191</v>
           </cell>
           <cell r="AU5">
-            <v>2.3427441077933491</v>
+            <v>2.5015359217923097</v>
           </cell>
         </row>
         <row r="6">
@@ -13942,26 +15812,35 @@
           <cell r="M6">
             <v>6.09566768358E-2</v>
           </cell>
+          <cell r="P6">
+            <v>3.6549908813310004</v>
+          </cell>
           <cell r="AD6">
             <v>-0.71885931011994497</v>
           </cell>
           <cell r="AE6">
             <v>3.616329679161276</v>
           </cell>
+          <cell r="AH6">
+            <v>1.0340107595814394</v>
+          </cell>
           <cell r="AI6">
-            <v>0.24886395341707321</v>
+            <v>0.19878146460548027</v>
+          </cell>
+          <cell r="AJ6">
+            <v>9.8394279946711976</v>
           </cell>
           <cell r="AK6">
             <v>76159.720779999989</v>
           </cell>
           <cell r="AP6">
-            <v>1.6671504107658244</v>
+            <v>1.7710974712384502</v>
           </cell>
           <cell r="AS6">
-            <v>-0.74835577599896963</v>
+            <v>-1.1738933064716637</v>
           </cell>
           <cell r="AU6">
-            <v>3.5491491351326516</v>
+            <v>3.706446483191673</v>
           </cell>
         </row>
         <row r="7">
@@ -13977,26 +15856,35 @@
           <cell r="M7">
             <v>0.101427345163</v>
           </cell>
+          <cell r="P7">
+            <v>4.6534031123809996</v>
+          </cell>
           <cell r="AD7">
             <v>-1.1210017956671885</v>
           </cell>
           <cell r="AE7">
             <v>4.708119553395461</v>
           </cell>
+          <cell r="AH7">
+            <v>1.0917898742341849</v>
+          </cell>
           <cell r="AI7">
-            <v>0.36833322513576033</v>
+            <v>0.23809968777422619</v>
+          </cell>
+          <cell r="AJ7">
+            <v>8.9826393000799953</v>
           </cell>
           <cell r="AK7">
             <v>104360.67064436666</v>
           </cell>
           <cell r="AP7">
-            <v>1.6235078267812537</v>
+            <v>1.7312149356228954</v>
           </cell>
           <cell r="AS7">
-            <v>-1.2021552805565139</v>
+            <v>-1.6525850645610833</v>
           </cell>
           <cell r="AU7">
-            <v>4.7811843510442298</v>
+            <v>4.9302597472735377</v>
           </cell>
         </row>
         <row r="8">
@@ -14012,26 +15900,35 @@
           <cell r="M8">
             <v>0.15789478925600001</v>
           </cell>
+          <cell r="P8">
+            <v>5.6585920053109993</v>
+          </cell>
           <cell r="AD8">
             <v>-1.5531532187550792</v>
           </cell>
           <cell r="AE8">
             <v>5.8224228299217398</v>
           </cell>
+          <cell r="AH8">
+            <v>1.1143032765262788</v>
+          </cell>
           <cell r="AI8">
-            <v>0.3878220877489264</v>
+            <v>0.26675376627979375</v>
+          </cell>
+          <cell r="AJ8">
+            <v>8.3527794370607289</v>
           </cell>
           <cell r="AK8">
             <v>134186.94364290001</v>
           </cell>
           <cell r="AP8">
-            <v>1.5909360061713129</v>
+            <v>1.7000345723760852</v>
           </cell>
           <cell r="AS8">
-            <v>-1.6955988996609206</v>
+            <v>-2.1503569073943143</v>
           </cell>
           <cell r="AU8">
-            <v>6.0535296730153165</v>
+            <v>6.1951705035261329</v>
           </cell>
         </row>
         <row r="9">
@@ -14047,26 +15944,35 @@
           <cell r="M9">
             <v>0.22742787231600001</v>
           </cell>
+          <cell r="P9">
+            <v>6.6582194092909992</v>
+          </cell>
           <cell r="AD9">
             <v>-2.0334153108882016</v>
           </cell>
           <cell r="AE9">
             <v>6.9544037559349565</v>
           </cell>
+          <cell r="AH9">
+            <v>1.1319809260132168</v>
+          </cell>
           <cell r="AI9">
-            <v>0.42426694752232513</v>
+            <v>0.29239247277710401</v>
+          </cell>
+          <cell r="AJ9">
+            <v>7.9097214262736575</v>
           </cell>
           <cell r="AK9">
             <v>162015.33762943334</v>
           </cell>
           <cell r="AP9">
-            <v>1.5660912330976451</v>
+            <v>1.6770279356474203</v>
           </cell>
           <cell r="AS9">
-            <v>-2.1907512788597918</v>
+            <v>-2.6320773027980722</v>
           </cell>
           <cell r="AU9">
-            <v>7.2206071040773159</v>
+            <v>7.3543511122927194</v>
           </cell>
         </row>
         <row r="10">
@@ -14082,26 +15988,35 @@
           <cell r="M10">
             <v>0.31685360629999998</v>
           </cell>
+          <cell r="P10">
+            <v>7.652869856880999</v>
+          </cell>
           <cell r="AD10">
             <v>-2.5200484986337504</v>
           </cell>
           <cell r="AE10">
             <v>8.087888554101534</v>
           </cell>
+          <cell r="AH10">
+            <v>1.1334847981665774</v>
+          </cell>
           <cell r="AI10">
-            <v>0.4293248471727919</v>
+            <v>0.31158299001978484</v>
+          </cell>
+          <cell r="AJ10">
+            <v>7.5696355831523254</v>
           </cell>
           <cell r="AK10">
             <v>188604.79414103334</v>
           </cell>
           <cell r="AP10">
-            <v>1.5470482432552271</v>
+            <v>1.6587034312572033</v>
           </cell>
           <cell r="AS10">
-            <v>-2.6626062134558128</v>
+            <v>-3.0884695398661051</v>
           </cell>
           <cell r="AU10">
-            <v>8.3196698247730776</v>
+            <v>8.447435794331847</v>
           </cell>
         </row>
         <row r="11">
@@ -14117,26 +16032,35 @@
           <cell r="M11">
             <v>0.41901386175900002</v>
           </cell>
+          <cell r="P11">
+            <v>8.6574270871509995</v>
+          </cell>
           <cell r="AD11">
             <v>-3.0166209629509613</v>
           </cell>
           <cell r="AE11">
             <v>9.2382312100566431</v>
           </cell>
+          <cell r="AH11">
+            <v>1.1503426559551091</v>
+          </cell>
           <cell r="AI11">
-            <v>0.43167352070841503</v>
+            <v>0.32653663827628593</v>
+          </cell>
+          <cell r="AJ11">
+            <v>7.303439964180833</v>
           </cell>
           <cell r="AK11">
             <v>213458.34164</v>
           </cell>
           <cell r="AP11">
-            <v>1.5317723436675272</v>
+            <v>1.643924492236746</v>
           </cell>
           <cell r="AS11">
-            <v>-3.1008250360799225</v>
+            <v>-3.5879995235852236</v>
           </cell>
           <cell r="AU11">
-            <v>9.3348324456003944</v>
+            <v>9.4582634162262647</v>
           </cell>
         </row>
         <row r="12">
@@ -14152,26 +16076,35 @@
           <cell r="M12">
             <v>0.52421283679200004</v>
           </cell>
+          <cell r="P12">
+            <v>9.6531216588909992</v>
+          </cell>
           <cell r="AD12">
             <v>-3.550504947990258</v>
           </cell>
           <cell r="AE12">
             <v>10.393042696659142</v>
           </cell>
+          <cell r="AH12">
+            <v>1.1548114866024992</v>
+          </cell>
           <cell r="AI12">
-            <v>0.46231267287616296</v>
+            <v>0.34162324274214445</v>
+          </cell>
+          <cell r="AJ12">
+            <v>7.06542338325524</v>
           </cell>
           <cell r="AK12">
             <v>239369.36507900001</v>
           </cell>
           <cell r="AP12">
-            <v>1.518649905691144</v>
+            <v>1.630363889996677</v>
           </cell>
           <cell r="AS12">
-            <v>-3.5862433433561169</v>
+            <v>-4.1182482565742582</v>
           </cell>
           <cell r="AU12">
-            <v>10.384810816853523</v>
+            <v>10.502796867054588</v>
           </cell>
         </row>
         <row r="13">
@@ -14257,6 +16190,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
+          <cell r="AI1" t="str">
+            <v>dev/deq</v>
+          </cell>
           <cell r="AK1" t="str">
             <v>p</v>
           </cell>
@@ -14284,7 +16220,7 @@
             <v>2722.5836246366666</v>
           </cell>
           <cell r="AS2">
-            <v>0</v>
+            <v>3.4156458709427363E-4</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
@@ -14309,14 +16245,20 @@
           <cell r="AE3">
             <v>0.79227428895571161</v>
           </cell>
+          <cell r="AI3">
+            <v>3.5017148347061366E-3</v>
+          </cell>
+          <cell r="AJ3">
+            <v>11.541948483334281</v>
+          </cell>
           <cell r="AK3">
             <v>43859.805339299994</v>
           </cell>
           <cell r="AS3">
-            <v>3.1440290436111809E-4</v>
+            <v>1.6067945065317252E-2</v>
           </cell>
           <cell r="AU3">
-            <v>0.56393365802109807</v>
+            <v>0.6126526325892323</v>
           </cell>
         </row>
         <row r="4">
@@ -14332,26 +16274,35 @@
           <cell r="M4">
             <v>-0.16667539188300001</v>
           </cell>
+          <cell r="P4">
+            <v>2.0034568397400001</v>
+          </cell>
           <cell r="AD4">
             <v>3.6056637227999344E-2</v>
           </cell>
           <cell r="AE4">
             <v>1.6467493256652945</v>
           </cell>
+          <cell r="AH4">
+            <v>0.85447503670958291</v>
+          </cell>
           <cell r="AI4">
-            <v>-4.5444225039413991E-2</v>
+            <v>-2.1895644143307781E-2</v>
+          </cell>
+          <cell r="AJ4">
+            <v>8.5103085248626336</v>
           </cell>
           <cell r="AK4">
             <v>125791.86203140001</v>
           </cell>
           <cell r="AP4">
-            <v>1.6356216271168877</v>
+            <v>1.7079939429529858</v>
           </cell>
           <cell r="AS4">
-            <v>2.0914750885428213E-2</v>
+            <v>-2.7422703459324797E-2</v>
           </cell>
           <cell r="AU4">
-            <v>1.017244237378548</v>
+            <v>0.73384208110763738</v>
           </cell>
         </row>
         <row r="5">
@@ -14367,26 +16318,35 @@
           <cell r="M5">
             <v>-0.148336451289</v>
           </cell>
+          <cell r="P5">
+            <v>3.0051645592999998</v>
+          </cell>
           <cell r="AD5">
             <v>-5.3830521729392178E-2</v>
           </cell>
           <cell r="AE5">
             <v>2.5786011719554747</v>
           </cell>
+          <cell r="AH5">
+            <v>0.93185184629018014</v>
+          </cell>
           <cell r="AI5">
-            <v>9.6460783240644582E-2</v>
+            <v>2.0875861810211605E-2</v>
+          </cell>
+          <cell r="AJ5">
+            <v>7.0541039445366129</v>
           </cell>
           <cell r="AK5">
             <v>240700.15517366666</v>
           </cell>
           <cell r="AP5">
-            <v>1.5440124208187311</v>
+            <v>1.6297105002118593</v>
           </cell>
           <cell r="AS5">
-            <v>-3.5076846519707106E-2</v>
+            <v>-1.2045759921995631E-2</v>
           </cell>
           <cell r="AU5">
-            <v>1.5977039384515814</v>
+            <v>1.3136082097415962</v>
           </cell>
         </row>
         <row r="6">
@@ -14402,26 +16362,35 @@
           <cell r="M6">
             <v>-0.123128385194</v>
           </cell>
+          <cell r="P6">
+            <v>4.0004733110500004</v>
+          </cell>
           <cell r="AD6">
             <v>-2.0860492076021364E-2</v>
           </cell>
           <cell r="AE6">
             <v>3.4797714886515165</v>
           </cell>
+          <cell r="AH6">
+            <v>0.90117031669604186</v>
+          </cell>
           <cell r="AI6">
-            <v>-3.6585791878108835E-2</v>
+            <v>5.9947879175552519E-3</v>
+          </cell>
+          <cell r="AJ6">
+            <v>6.1618132648045494</v>
           </cell>
           <cell r="AK6">
             <v>384207.03470800002</v>
           </cell>
           <cell r="AP6">
-            <v>1.4846589622644111</v>
+            <v>1.57553165468834</v>
           </cell>
           <cell r="AS6">
-            <v>-9.5906728785695901E-3</v>
+            <v>-0.10716903912271379</v>
           </cell>
           <cell r="AU6">
-            <v>2.2943179061374162</v>
+            <v>2.0093721558890905</v>
           </cell>
         </row>
         <row r="7">
@@ -14437,26 +16406,35 @@
           <cell r="M7">
             <v>-7.8269896071000003E-2</v>
           </cell>
+          <cell r="P7">
+            <v>5.0015242186200002</v>
+          </cell>
           <cell r="AD7">
             <v>-0.17253362112402804</v>
           </cell>
           <cell r="AE7">
             <v>4.46032940890486</v>
           </cell>
+          <cell r="AH7">
+            <v>0.98055792025334343</v>
+          </cell>
           <cell r="AI7">
-            <v>0.15468043846794832</v>
+            <v>3.868181143293406E-2</v>
+          </cell>
+          <cell r="AJ7">
+            <v>5.5543506655416293</v>
           </cell>
           <cell r="AK7">
             <v>550081.61634333339</v>
           </cell>
           <cell r="AP7">
-            <v>1.4417039812757488</v>
+            <v>1.5351765352315057</v>
           </cell>
           <cell r="AS7">
-            <v>-0.12778555922382823</v>
+            <v>-7.9662853745677067E-2</v>
           </cell>
           <cell r="AU7">
-            <v>3.0584409427407171</v>
+            <v>2.7705279342597908</v>
           </cell>
         </row>
         <row r="8">
@@ -14472,26 +16450,35 @@
           <cell r="M8">
             <v>9.9847637295599999E-3</v>
           </cell>
+          <cell r="P8">
+            <v>6.00032989378</v>
+          </cell>
           <cell r="AD8">
             <v>-0.11966219637354514</v>
           </cell>
           <cell r="AE8">
             <v>5.3807128307200633</v>
           </cell>
+          <cell r="AH8">
+            <v>0.92038342181520338</v>
+          </cell>
           <cell r="AI8">
-            <v>-5.7444999005097835E-2</v>
+            <v>2.2239097334903039E-2</v>
+          </cell>
+          <cell r="AJ8">
+            <v>5.1185836264926623</v>
           </cell>
           <cell r="AK8">
             <v>729663.24277466664</v>
           </cell>
           <cell r="AP8">
-            <v>1.4090597034444348</v>
+            <v>1.5041371948276157</v>
           </cell>
           <cell r="AS8">
-            <v>-8.1071416820015493E-2</v>
+            <v>-0.2120986149868225</v>
           </cell>
           <cell r="AU8">
-            <v>3.8716386660040976</v>
+            <v>3.582108236949435</v>
           </cell>
         </row>
         <row r="9">
@@ -14507,26 +16494,35 @@
           <cell r="M9">
             <v>0.11247825017800001</v>
           </cell>
+          <cell r="P9">
+            <v>7.0048255087299998</v>
+          </cell>
           <cell r="AD9">
             <v>-0.30668116963163783</v>
           </cell>
           <cell r="AE9">
             <v>6.3933386030602106</v>
           </cell>
+          <cell r="AH9">
+            <v>1.0126257723401473</v>
+          </cell>
           <cell r="AI9">
-            <v>0.18468715528136079</v>
+            <v>4.7968860820986864E-2</v>
+          </cell>
+          <cell r="AJ9">
+            <v>4.7816156102478056</v>
           </cell>
           <cell r="AK9">
             <v>923395.66245333327</v>
           </cell>
           <cell r="AP9">
-            <v>1.3831153210120573</v>
+            <v>1.4787462801832456</v>
           </cell>
           <cell r="AS9">
-            <v>-0.23709709103676474</v>
+            <v>-0.28522364329040478</v>
           </cell>
           <cell r="AU9">
-            <v>4.7164493079734999</v>
+            <v>4.4215895761699375</v>
           </cell>
         </row>
         <row r="10">
@@ -14542,26 +16538,35 @@
           <cell r="M10">
             <v>0.22259340647600001</v>
           </cell>
+          <cell r="P10">
+            <v>8.0057731891700001</v>
+          </cell>
           <cell r="AD10">
             <v>-0.39891023430928918</v>
           </cell>
           <cell r="AE10">
             <v>7.3773424148796956</v>
           </cell>
+          <cell r="AH10">
+            <v>0.98400381181948493</v>
+          </cell>
           <cell r="AI10">
-            <v>9.3728361180953165E-2</v>
+            <v>5.4072349075828322E-2</v>
+          </cell>
+          <cell r="AJ10">
+            <v>4.5183374352198342</v>
           </cell>
           <cell r="AK10">
             <v>1123146.0568890001</v>
           </cell>
           <cell r="AP10">
-            <v>1.3618524601923803</v>
+            <v>1.4579568320904985</v>
           </cell>
           <cell r="AS10">
-            <v>-0.31714311398157341</v>
+            <v>-0.37456053872223666</v>
           </cell>
           <cell r="AU10">
-            <v>5.5704706728650812</v>
+            <v>5.2748520854979262</v>
           </cell>
         </row>
         <row r="11">
@@ -14577,26 +16582,35 @@
           <cell r="M11">
             <v>0.34304884460000001</v>
           </cell>
+          <cell r="P11">
+            <v>9.0025018483799997</v>
+          </cell>
           <cell r="AD11">
             <v>-0.51187788418595659</v>
           </cell>
           <cell r="AE11">
             <v>8.3693944476711231</v>
           </cell>
+          <cell r="AH11">
+            <v>0.99205203279142751</v>
+          </cell>
           <cell r="AI11">
-            <v>0.11387270641319085</v>
+            <v>6.1160683414603824E-2</v>
+          </cell>
+          <cell r="AJ11">
+            <v>4.3067416055433272</v>
           </cell>
           <cell r="AK11">
             <v>1325751.0573406667</v>
           </cell>
           <cell r="AP11">
-            <v>1.3442472387769562</v>
+            <v>1.4405794126443006</v>
           </cell>
           <cell r="AS11">
-            <v>-0.41401241416581447</v>
+            <v>-0.53804332828629375</v>
           </cell>
           <cell r="AU11">
-            <v>6.4211512550297627</v>
+            <v>6.1242046002514146</v>
           </cell>
         </row>
         <row r="12">
@@ -14612,26 +16626,35 @@
           <cell r="M12">
             <v>0.47367314709000002</v>
           </cell>
+          <cell r="P12">
+            <v>10.000829901299999</v>
+          </cell>
           <cell r="AD12">
             <v>-0.72445349709451712</v>
           </cell>
           <cell r="AE12">
             <v>9.3997601185372393</v>
           </cell>
+          <cell r="AH12">
+            <v>1.0303656708661162</v>
+          </cell>
           <cell r="AI12">
-            <v>0.20631084567275165</v>
+            <v>7.7071487778270484E-2</v>
+          </cell>
+          <cell r="AJ12">
+            <v>4.1286421353061593</v>
           </cell>
           <cell r="AK12">
             <v>1534206.2600356666</v>
           </cell>
           <cell r="AP12">
-            <v>1.329224375110359</v>
+            <v>1.4254494151173009</v>
           </cell>
           <cell r="AS12">
-            <v>-0.59198777645131639</v>
+            <v>-0.6629629679769472</v>
           </cell>
           <cell r="AU12">
-            <v>7.283807610807612</v>
+            <v>6.9810943553368032</v>
           </cell>
         </row>
         <row r="13">
@@ -14647,26 +16670,35 @@
           <cell r="M13">
             <v>0.64496488439199995</v>
           </cell>
+          <cell r="P13">
+            <v>11.0048504764</v>
+          </cell>
           <cell r="AD13">
             <v>-0.8823372851110256</v>
           </cell>
           <cell r="AE13">
             <v>10.42127381778735</v>
           </cell>
+          <cell r="AH13">
+            <v>1.0215136992501108</v>
+          </cell>
           <cell r="AI13">
-            <v>0.15455865949953521</v>
+            <v>8.4666932328850739E-2</v>
+          </cell>
+          <cell r="AJ13">
+            <v>3.9791317249275808</v>
           </cell>
           <cell r="AK13">
             <v>1742907.02988</v>
           </cell>
           <cell r="AP13">
-            <v>1.3161821183565607</v>
+            <v>1.4123654303941768</v>
           </cell>
           <cell r="AS13">
-            <v>-0.72359113779054607</v>
+            <v>-0.77738815707083919</v>
           </cell>
           <cell r="AU13">
-            <v>8.1352860188461165</v>
+            <v>7.8302467060217209</v>
           </cell>
         </row>
         <row r="14">
@@ -14682,26 +16714,35 @@
           <cell r="M14">
             <v>0.80850408768199999</v>
           </cell>
+          <cell r="P14">
+            <v>12.0028031227</v>
+          </cell>
           <cell r="AD14">
             <v>-1.0283927463105793</v>
           </cell>
           <cell r="AE14">
             <v>11.4366759110223</v>
           </cell>
+          <cell r="AH14">
+            <v>1.0154020932349503</v>
+          </cell>
           <cell r="AI14">
-            <v>0.14384002374294735</v>
+            <v>8.9920598809611063E-2</v>
+          </cell>
+          <cell r="AJ14">
+            <v>3.8546136316205919</v>
           </cell>
           <cell r="AK14">
             <v>1945440.1324166667</v>
           </cell>
           <cell r="AP14">
-            <v>1.3049630913246724</v>
+            <v>1.4011841410864352</v>
           </cell>
           <cell r="AS14">
-            <v>-0.84106314136271043</v>
+            <v>-0.8831604905687318</v>
           </cell>
           <cell r="AU14">
-            <v>8.9519711146584999</v>
+            <v>8.6452733562951973</v>
           </cell>
         </row>
         <row r="15">
@@ -14717,26 +16758,35 @@
           <cell r="M15">
             <v>0.969511239001</v>
           </cell>
+          <cell r="P15">
+            <v>13.0039989773</v>
+          </cell>
           <cell r="AD15">
             <v>-1.1633764262104642</v>
           </cell>
           <cell r="AE15">
             <v>12.453888443639299</v>
           </cell>
+          <cell r="AH15">
+            <v>1.0172125326169983</v>
+          </cell>
           <cell r="AI15">
-            <v>0.13269958398232701</v>
+            <v>9.3414713924521081E-2</v>
+          </cell>
+          <cell r="AJ15">
+            <v>3.7455515748213779</v>
           </cell>
           <cell r="AK15">
             <v>2148422.9221899998</v>
           </cell>
           <cell r="AP15">
-            <v>1.2951491902278758</v>
+            <v>1.3911659691909273</v>
           </cell>
           <cell r="AS15">
-            <v>-0.94855444958458224</v>
+            <v>-1.0378061195572004</v>
           </cell>
           <cell r="AU15">
-            <v>9.7620061200145649</v>
+            <v>9.4541903889180006</v>
           </cell>
         </row>
         <row r="16">
@@ -14752,26 +16802,35 @@
           <cell r="M16">
             <v>1.1483404232200001</v>
           </cell>
+          <cell r="P16">
+            <v>14.001736538999999</v>
+          </cell>
           <cell r="AD16">
             <v>-1.3692547746034252</v>
           </cell>
           <cell r="AE16">
             <v>13.494096944178469</v>
           </cell>
+          <cell r="AH16">
+            <v>1.0402085005391708</v>
+          </cell>
           <cell r="AI16">
-            <v>0.19792027106704868</v>
+            <v>0.10147064900064615</v>
+          </cell>
+          <cell r="AJ16">
+            <v>3.6520373341150312</v>
           </cell>
           <cell r="AK16">
             <v>2344706.9102633335</v>
           </cell>
           <cell r="AP16">
-            <v>1.2864551675378204</v>
+            <v>1.3824002451454775</v>
           </cell>
           <cell r="AS16">
-            <v>-1.1023878184660132</v>
+            <v>-1.1905617030137958</v>
           </cell>
           <cell r="AU16">
-            <v>10.539255302486215</v>
+            <v>10.227648386782191</v>
           </cell>
         </row>
         <row r="17">
@@ -14787,31 +16846,43 @@
           <cell r="M17">
             <v>1.33766672672</v>
           </cell>
+          <cell r="P17">
+            <v>15.0044971383</v>
+          </cell>
           <cell r="AD17">
             <v>-1.5788078329901047</v>
           </cell>
           <cell r="AE17">
             <v>14.54301115556521</v>
           </cell>
+          <cell r="AH17">
+            <v>1.0489142113867409</v>
+          </cell>
           <cell r="AI17">
-            <v>0.19978093166421609</v>
+            <v>0.10856127497268256</v>
+          </cell>
+          <cell r="AJ17">
+            <v>3.5710667871674415</v>
           </cell>
           <cell r="AK17">
             <v>2533717.0905633331</v>
           </cell>
           <cell r="AP17">
-            <v>1.2788189027392434</v>
+            <v>1.3746732860951418</v>
           </cell>
           <cell r="AS17">
-            <v>-1.2507263555561963</v>
+            <v>-2.2125124235299829</v>
           </cell>
           <cell r="AU17">
-            <v>11.281761285687377</v>
+            <v>10.966725504222174</v>
           </cell>
         </row>
         <row r="18">
           <cell r="H18">
             <v>0.67549807377299997</v>
+          </cell>
+          <cell r="AI18">
+            <v>0.20606521374331233</v>
           </cell>
           <cell r="AK18">
             <v>2476147.9672166668</v>
@@ -14879,7 +16950,7 @@
             <v>2556.0498433166663</v>
           </cell>
           <cell r="AS2">
-            <v>0</v>
+            <v>2.9875506383538679E-4</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
@@ -14898,20 +16969,32 @@
           <cell r="M3">
             <v>-0.165464503634</v>
           </cell>
+          <cell r="P3">
+            <v>1.00591444852</v>
+          </cell>
           <cell r="AD3">
             <v>9.9703808983271358E-3</v>
           </cell>
           <cell r="AE3">
             <v>0.86439544855037098</v>
           </cell>
+          <cell r="AH3">
+            <v>0.86439544759147136</v>
+          </cell>
+          <cell r="AI3">
+            <v>-1.1534513416339594E-2</v>
+          </cell>
+          <cell r="AJ3">
+            <v>14.495631316908813</v>
+          </cell>
           <cell r="AK3">
             <v>19947.490459600001</v>
           </cell>
           <cell r="AS3">
-            <v>2.5284172742607702E-4</v>
+            <v>-0.10830043129310142</v>
           </cell>
           <cell r="AU3">
-            <v>0.45351349580406258</v>
+            <v>0.5358666655556884</v>
           </cell>
         </row>
         <row r="4">
@@ -14927,26 +17010,35 @@
           <cell r="M4">
             <v>-0.11339904918599999</v>
           </cell>
+          <cell r="P4">
+            <v>2.0061650236599999</v>
+          </cell>
           <cell r="AD4">
             <v>-0.15821214050129639</v>
           </cell>
           <cell r="AE4">
             <v>1.8270880839220307</v>
           </cell>
+          <cell r="AH4">
+            <v>0.96269263537165972</v>
+          </cell>
           <cell r="AI4">
-            <v>0.17470012257307291</v>
+            <v>8.6592508535044424E-2</v>
+          </cell>
+          <cell r="AJ4">
+            <v>11.029283131660142</v>
           </cell>
           <cell r="AK4">
             <v>51321.077509900002</v>
           </cell>
           <cell r="AP4">
-            <v>1.7404396115775711</v>
+            <v>1.822371107768963</v>
           </cell>
           <cell r="AS4">
-            <v>-0.1249310944027326</v>
+            <v>-0.23995491538875091</v>
           </cell>
           <cell r="AU4">
-            <v>1.1700781683777595</v>
+            <v>1.2506905403863153</v>
           </cell>
         </row>
         <row r="5">
@@ -14962,26 +17054,35 @@
           <cell r="M5">
             <v>-7.3105874440700006E-2</v>
           </cell>
+          <cell r="P5">
+            <v>3.0059730675199998</v>
+          </cell>
           <cell r="AD5">
             <v>-0.32264470836657511</v>
           </cell>
           <cell r="AE5">
             <v>2.8131835652496848</v>
           </cell>
+          <cell r="AH5">
+            <v>0.98609548132765412</v>
+          </cell>
           <cell r="AI5">
-            <v>0.16675116251814767</v>
+            <v>0.11469024359167217</v>
+          </cell>
+          <cell r="AJ5">
+            <v>9.3564207450334393</v>
           </cell>
           <cell r="AK5">
             <v>90638.674862666681</v>
           </cell>
           <cell r="AP5">
-            <v>1.6531141584289157</v>
+            <v>1.7489501691531595</v>
           </cell>
           <cell r="AS5">
-            <v>-0.26540124491343825</v>
+            <v>-0.55365847063151163</v>
           </cell>
           <cell r="AU5">
-            <v>2.0124719987381221</v>
+            <v>2.0921998931579107</v>
           </cell>
         </row>
         <row r="6">
@@ -14997,26 +17098,35 @@
           <cell r="M6">
             <v>-2.5593465599700001E-2</v>
           </cell>
+          <cell r="P6">
+            <v>4.00578277329</v>
+          </cell>
           <cell r="AD6">
             <v>-0.7160377934598201</v>
           </cell>
           <cell r="AE6">
             <v>3.8888826306841788</v>
           </cell>
+          <cell r="AH6">
+            <v>1.075699065434494</v>
+          </cell>
           <cell r="AI6">
-            <v>0.36570923758713736</v>
+            <v>0.18412430033504151</v>
+          </cell>
+          <cell r="AJ6">
+            <v>8.3243962342418119</v>
           </cell>
           <cell r="AK6">
             <v>135775.63518106667</v>
           </cell>
           <cell r="AP6">
-            <v>1.5974582636996595</v>
+            <v>1.6985885257265272</v>
           </cell>
           <cell r="AS6">
-            <v>-0.60397606737864074</v>
+            <v>-0.79383497941053172</v>
           </cell>
           <cell r="AU6">
-            <v>2.9382753082170918</v>
+            <v>3.0069820747399878</v>
           </cell>
         </row>
         <row r="7">
@@ -15032,26 +17142,35 @@
           <cell r="M7">
             <v>3.0582789242399998E-2</v>
           </cell>
+          <cell r="P7">
+            <v>5.0051329553999997</v>
+          </cell>
           <cell r="AD7">
             <v>-0.99869458508912423</v>
           </cell>
           <cell r="AE7">
             <v>4.9384663104565565</v>
           </cell>
+          <cell r="AH7">
+            <v>1.0495836797723777</v>
+          </cell>
           <cell r="AI7">
-            <v>0.26930372211065978</v>
+            <v>0.20222768007438241</v>
+          </cell>
+          <cell r="AJ7">
+            <v>7.6461633555965847</v>
           </cell>
           <cell r="AK7">
             <v>182157.4419312333</v>
           </cell>
           <cell r="AP7">
-            <v>1.5583485062903495</v>
+            <v>1.662879935338087</v>
           </cell>
           <cell r="AS7">
-            <v>-0.85188824711902078</v>
+            <v>-1.1425967469106648</v>
           </cell>
           <cell r="AU7">
-            <v>3.858842531712467</v>
+            <v>3.9254516449901815</v>
           </cell>
         </row>
         <row r="8">
@@ -15067,26 +17186,35 @@
           <cell r="M8">
             <v>0.13740715989300001</v>
           </cell>
+          <cell r="P8">
+            <v>6.0040912496500001</v>
+          </cell>
           <cell r="AD8">
             <v>-1.4191891767079605</v>
           </cell>
           <cell r="AE8">
             <v>6.0396844916037837</v>
           </cell>
+          <cell r="AH8">
+            <v>1.1012181811472272</v>
+          </cell>
           <cell r="AI8">
-            <v>0.38184494119119372</v>
+            <v>0.23497736987435044</v>
+          </cell>
+          <cell r="AJ8">
+            <v>7.1409729446232255</v>
           </cell>
           <cell r="AK8">
             <v>230725.84384566665</v>
           </cell>
           <cell r="AP8">
-            <v>1.5290331594502045</v>
+            <v>1.6347048341100596</v>
           </cell>
           <cell r="AS8">
-            <v>-1.2126785024251074</v>
+            <v>-1.4254095783433365</v>
           </cell>
           <cell r="AU8">
-            <v>4.8037031711662062</v>
+            <v>4.8625820755490015</v>
           </cell>
         </row>
         <row r="9">
@@ -15102,26 +17230,35 @@
           <cell r="M9">
             <v>0.23810092375700001</v>
           </cell>
+          <cell r="P9">
+            <v>7.0058814962199998</v>
+          </cell>
           <cell r="AD9">
             <v>-1.7508332780185973</v>
           </cell>
           <cell r="AE9">
             <v>7.1192576157988006</v>
           </cell>
+          <cell r="AH9">
+            <v>1.0795731241950168</v>
+          </cell>
           <cell r="AI9">
-            <v>0.30719929375597144</v>
+            <v>0.24592919269183505</v>
+          </cell>
+          <cell r="AJ9">
+            <v>6.7529279408785516</v>
           </cell>
           <cell r="AK9">
             <v>279898.81311533332</v>
           </cell>
           <cell r="AP9">
-            <v>1.5056348650184768</v>
+            <v>1.6120296624895136</v>
           </cell>
           <cell r="AS9">
-            <v>-1.5000408779600385</v>
+            <v>-1.7872858748277611</v>
           </cell>
           <cell r="AU9">
-            <v>5.7391297212129064</v>
+            <v>5.7960161733603757</v>
           </cell>
         </row>
         <row r="10">
@@ -15137,26 +17274,35 @@
           <cell r="M10">
             <v>0.36490219552499997</v>
           </cell>
+          <cell r="P10">
+            <v>8.0011853222700005</v>
+          </cell>
           <cell r="AD10">
             <v>-2.1933307755513098</v>
           </cell>
           <cell r="AE10">
             <v>8.2334755863341869</v>
           </cell>
+          <cell r="AH10">
+            <v>1.1142179705353863</v>
+          </cell>
           <cell r="AI10">
-            <v>0.39713728303995188</v>
+            <v>0.2663918478354112</v>
+          </cell>
+          <cell r="AJ10">
+            <v>6.445796850129458</v>
           </cell>
           <cell r="AK10">
             <v>328777.82239633333</v>
           </cell>
           <cell r="AP10">
-            <v>1.4865801781327825</v>
+            <v>1.5933792362975137</v>
           </cell>
           <cell r="AS10">
-            <v>-1.8651546569579955</v>
+            <v>-2.1243203415714205</v>
           </cell>
           <cell r="AU10">
-            <v>6.6584938670395957</v>
+            <v>6.7092363724734749</v>
           </cell>
         </row>
         <row r="11">
@@ -15172,26 +17318,35 @@
           <cell r="M11">
             <v>0.46856926151799999</v>
           </cell>
+          <cell r="P11">
+            <v>9.0006810350700004</v>
+          </cell>
           <cell r="AD11">
             <v>-2.6262145728773767</v>
           </cell>
           <cell r="AE11">
             <v>9.3529214808213137</v>
           </cell>
+          <cell r="AH11">
+            <v>1.1194458944871268</v>
+          </cell>
           <cell r="AI11">
-            <v>0.38669470267197881</v>
+            <v>0.28079082864777344</v>
+          </cell>
+          <cell r="AJ11">
+            <v>6.2044656179427848</v>
           </cell>
           <cell r="AK11">
             <v>375151.09649433335</v>
           </cell>
           <cell r="AP11">
-            <v>1.470995298159429</v>
+            <v>1.5782510813713937</v>
           </cell>
           <cell r="AS11">
-            <v>-2.1978356624011219</v>
+            <v>-2.3798836146536715</v>
           </cell>
           <cell r="AU11">
-            <v>7.5188133985572794</v>
+            <v>7.5654904820135211</v>
           </cell>
         </row>
         <row r="12">
@@ -15207,26 +17362,35 @@
           <cell r="M12">
             <v>0.62194967495800002</v>
           </cell>
+          <cell r="P12">
+            <v>10.005498787500001</v>
+          </cell>
           <cell r="AD12">
             <v>-2.9873528008148424</v>
           </cell>
           <cell r="AE12">
             <v>10.457959603650322</v>
           </cell>
+          <cell r="AH12">
+            <v>1.1050381228290078</v>
+          </cell>
           <cell r="AI12">
-            <v>0.32681065067050885</v>
+            <v>0.28565350355456676</v>
+          </cell>
+          <cell r="AJ12">
+            <v>6.0172755513511387</v>
           </cell>
           <cell r="AK12">
             <v>417071.63527299999</v>
           </cell>
           <cell r="AP12">
-            <v>1.4584525263146098</v>
+            <v>1.5662099365220228</v>
           </cell>
           <cell r="AS12">
-            <v>-2.4484273220377215</v>
+            <v>-2.7593568070693166</v>
           </cell>
           <cell r="AU12">
-            <v>8.2855927526648259</v>
+            <v>8.3313650455509158</v>
           </cell>
         </row>
         <row r="13">
@@ -15328,7 +17492,7 @@
             <v>7.7290840394539373E-9</v>
           </cell>
           <cell r="AS2">
-            <v>0</v>
+            <v>3.3292368819230625E-4</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
@@ -15350,11 +17514,17 @@
           <cell r="AE3">
             <v>0.78881789650508294</v>
           </cell>
+          <cell r="AI3">
+            <v>-4.8578323170432841E-2</v>
+          </cell>
+          <cell r="AJ3">
+            <v>12.057960786920809</v>
+          </cell>
           <cell r="AS3">
-            <v>3.0286991172441031E-4</v>
+            <v>-4.2214763595324244E-2</v>
           </cell>
           <cell r="AU3">
-            <v>0.54324732645312113</v>
+            <v>0.597153749917398</v>
           </cell>
         </row>
         <row r="4">
@@ -15367,23 +17537,32 @@
           <cell r="M4">
             <v>-0.15639674848099999</v>
           </cell>
+          <cell r="P4">
+            <v>2.0028918727199998</v>
+          </cell>
           <cell r="AD4">
             <v>-4.6776410363131404E-2</v>
           </cell>
           <cell r="AE4">
             <v>1.6964328109948899</v>
           </cell>
+          <cell r="AH4">
+            <v>0.90761491448980691</v>
+          </cell>
           <cell r="AI4">
-            <v>9.3757671567143527E-2</v>
+            <v>2.7573394041877152E-2</v>
+          </cell>
+          <cell r="AJ4">
+            <v>8.9231233478896872</v>
           </cell>
           <cell r="AP4">
-            <v>1.6545991032687406</v>
+            <v>1.7283401707884312</v>
           </cell>
           <cell r="AS4">
-            <v>-8.6903064567766086E-2</v>
+            <v>-0.22802696080741641</v>
           </cell>
           <cell r="AU4">
-            <v>1.4733678490925839</v>
+            <v>1.5309962760192113</v>
           </cell>
         </row>
         <row r="5">
@@ -15396,23 +17575,32 @@
           <cell r="M5">
             <v>-0.131301899098</v>
           </cell>
+          <cell r="P5">
+            <v>3.0057739477899998</v>
+          </cell>
           <cell r="AD5">
             <v>-0.22792370372989579</v>
           </cell>
           <cell r="AE5">
             <v>2.6687025817170649</v>
           </cell>
+          <cell r="AH5">
+            <v>0.97226977072217502</v>
+          </cell>
           <cell r="AI5">
-            <v>0.18631381826487642</v>
+            <v>8.5406183997936494E-2</v>
+          </cell>
+          <cell r="AJ5">
+            <v>7.4589002579476258</v>
           </cell>
           <cell r="AP5">
-            <v>1.5643844234460931</v>
+            <v>1.6526036207278714</v>
           </cell>
           <cell r="AS5">
-            <v>-0.29986452851341999</v>
+            <v>-0.24561760173310954</v>
           </cell>
           <cell r="AU5">
-            <v>2.6163934492812571</v>
+            <v>2.6699115934383131</v>
           </cell>
         </row>
         <row r="6">
@@ -15425,23 +17613,32 @@
           <cell r="M6">
             <v>-8.8933488966599999E-2</v>
           </cell>
+          <cell r="P6">
+            <v>4.0064185534799996</v>
+          </cell>
           <cell r="AD6">
             <v>-0.21825719498578811</v>
           </cell>
           <cell r="AE6">
             <v>3.5894703995944859</v>
           </cell>
+          <cell r="AH6">
+            <v>0.92076781787742101</v>
+          </cell>
           <cell r="AI6">
-            <v>-1.0498312990989607E-2</v>
+            <v>6.0804846032563836E-2</v>
+          </cell>
+          <cell r="AJ6">
+            <v>6.5408517058917441</v>
           </cell>
           <cell r="AP6">
-            <v>1.5063561750312602</v>
+            <v>1.5992213376412019</v>
           </cell>
           <cell r="AS6">
-            <v>-0.28545725072937495</v>
+            <v>-0.52469329457758918</v>
           </cell>
           <cell r="AU6">
-            <v>3.9887356338217894</v>
+            <v>4.0394412248255636</v>
           </cell>
         </row>
         <row r="7">
@@ -15454,23 +17651,32 @@
           <cell r="M7">
             <v>-8.7249314968500004E-3</v>
           </cell>
+          <cell r="P7">
+            <v>5.0055779012499997</v>
+          </cell>
           <cell r="AD7">
             <v>-0.43793676714494434</v>
           </cell>
           <cell r="AE7">
             <v>4.5971902850329718</v>
           </cell>
+          <cell r="AH7">
+            <v>1.0077198854384859</v>
+          </cell>
           <cell r="AI7">
-            <v>0.21799666289562974</v>
+            <v>9.5261831682436737E-2</v>
+          </cell>
+          <cell r="AJ7">
+            <v>5.9192200384914937</v>
           </cell>
           <cell r="AP7">
-            <v>1.4641809111583908</v>
+            <v>1.5597899620580336</v>
           </cell>
           <cell r="AS7">
-            <v>-0.60719014465319487</v>
+            <v>-0.67804966194615723</v>
           </cell>
           <cell r="AU7">
-            <v>5.4645971889954836</v>
+            <v>5.5079068427604758</v>
           </cell>
         </row>
         <row r="8">
@@ -15483,23 +17689,32 @@
           <cell r="M8">
             <v>7.6454647829700004E-2</v>
           </cell>
+          <cell r="P8">
+            <v>6.0017548057700001</v>
+          </cell>
           <cell r="AD8">
             <v>-0.53587894121895219</v>
           </cell>
           <cell r="AE8">
             <v>5.5707389170981036</v>
           </cell>
+          <cell r="AH8">
+            <v>0.97354863206513187</v>
+          </cell>
           <cell r="AI8">
-            <v>0.10060326813489413</v>
+            <v>9.6195307156505733E-2</v>
+          </cell>
+          <cell r="AJ8">
+            <v>5.4708515804995139</v>
           </cell>
           <cell r="AP8">
-            <v>1.4322228418598042</v>
+            <v>1.5293741073997003</v>
           </cell>
           <cell r="AS8">
-            <v>-0.7622032526092567</v>
+            <v>-1.0291647610292043</v>
           </cell>
           <cell r="AU8">
-            <v>7.0054328977143312</v>
+            <v>7.0486771339375105</v>
           </cell>
         </row>
         <row r="9">
@@ -15512,23 +17727,32 @@
           <cell r="M9">
             <v>0.17321437800700001</v>
           </cell>
+          <cell r="P9">
+            <v>7.0000509280800003</v>
+          </cell>
           <cell r="AD9">
             <v>-0.78842716158120285</v>
           </cell>
           <cell r="AE9">
             <v>6.6047566541380522</v>
           </cell>
+          <cell r="AH9">
+            <v>1.0340177370399486</v>
+          </cell>
           <cell r="AI9">
-            <v>0.244239737207229</v>
+            <v>0.11937262837492017</v>
+          </cell>
+          <cell r="AJ9">
+            <v>5.1278912742215805</v>
           </cell>
           <cell r="AP9">
-            <v>1.406955906635972</v>
+            <v>1.5048205109399746</v>
           </cell>
           <cell r="AS9">
-            <v>-1.1486137710133479</v>
+            <v>-1.3006420173659203</v>
           </cell>
           <cell r="AU9">
-            <v>8.5875281080290868</v>
+            <v>8.621446767485498</v>
           </cell>
         </row>
         <row r="10">
@@ -15541,23 +17765,32 @@
           <cell r="M10">
             <v>0.293746131834</v>
           </cell>
+          <cell r="P10">
+            <v>8.0004176068399993</v>
+          </cell>
           <cell r="AD10">
             <v>-0.96929930922372654</v>
           </cell>
           <cell r="AE10">
             <v>7.6222196992331996</v>
           </cell>
+          <cell r="AH10">
+            <v>1.0174630450951474</v>
+          </cell>
           <cell r="AI10">
-            <v>0.17776778086874845</v>
+            <v>0.12716758995037084</v>
+          </cell>
+          <cell r="AJ10">
+            <v>4.8550104631250237</v>
           </cell>
           <cell r="AP10">
-            <v>1.3862244629844778</v>
+            <v>1.4843883683047383</v>
           </cell>
           <cell r="AS10">
-            <v>-1.4346008447086953</v>
+            <v>-1.5562879070102438</v>
           </cell>
           <cell r="AU10">
-            <v>10.196295862780442</v>
+            <v>10.227779089573978</v>
           </cell>
         </row>
         <row r="11">
@@ -15570,23 +17803,32 @@
           <cell r="M11">
             <v>0.44065184642100003</v>
           </cell>
+          <cell r="P11">
+            <v>9.0056449762900002</v>
+          </cell>
           <cell r="AD11">
             <v>-1.137882342869037</v>
           </cell>
           <cell r="AE11">
             <v>8.6452885353400131</v>
           </cell>
+          <cell r="AH11">
+            <v>1.0230688361068134</v>
+          </cell>
           <cell r="AI11">
-            <v>0.16478171135271447</v>
+            <v>0.13161878151522965</v>
+          </cell>
+          <cell r="AJ11">
+            <v>4.6349132508888031</v>
           </cell>
           <cell r="AP11">
-            <v>1.3688997705380646</v>
+            <v>1.4672712315986158</v>
           </cell>
           <cell r="AS11">
-            <v>-1.6979080270518052</v>
+            <v>-1.8916723156098922</v>
           </cell>
           <cell r="AU11">
-            <v>11.794210948026171</v>
+            <v>11.82420843814122</v>
           </cell>
         </row>
         <row r="12">
@@ -15599,23 +17841,32 @@
           <cell r="M12">
             <v>0.58197310244099998</v>
           </cell>
+          <cell r="P12">
+            <v>10.0047857344</v>
+          </cell>
           <cell r="AD12">
             <v>-1.3686695110261904</v>
           </cell>
           <cell r="AE12">
             <v>9.6871456706652967</v>
           </cell>
+          <cell r="AH12">
+            <v>1.0418571353252837</v>
+          </cell>
           <cell r="AI12">
-            <v>0.22151517740011265</v>
+            <v>0.14128718175166993</v>
+          </cell>
+          <cell r="AJ12">
+            <v>4.4540229875032571</v>
           </cell>
           <cell r="AP12">
-            <v>1.3542817906462632</v>
+            <v>1.4527407322187205</v>
           </cell>
           <cell r="AS12">
-            <v>-2.0456579075809311</v>
+            <v>-2.2496955705564607</v>
           </cell>
           <cell r="AU12">
-            <v>13.364080266285123</v>
+            <v>13.388845981334295</v>
           </cell>
         </row>
         <row r="13">
@@ -15628,23 +17879,32 @@
           <cell r="M13">
             <v>0.73022793860099999</v>
           </cell>
+          <cell r="P13">
+            <v>11.005523975599999</v>
+          </cell>
           <cell r="AD13">
             <v>-1.6192080908604187</v>
           </cell>
           <cell r="AE13">
             <v>10.740525300466734</v>
           </cell>
+          <cell r="AH13">
+            <v>1.0533796298014373</v>
+          </cell>
           <cell r="AI13">
-            <v>0.23784262838028775</v>
+            <v>0.15075688065182952</v>
+          </cell>
+          <cell r="AJ13">
+            <v>4.301964660487112</v>
           </cell>
           <cell r="AP13">
-            <v>1.3417561426741769</v>
+            <v>1.4401797814660104</v>
           </cell>
           <cell r="AS13">
-            <v>-2.4118837709430028</v>
+            <v>-2.6128108877655114</v>
           </cell>
           <cell r="AU13">
-            <v>14.903862541044177</v>
+            <v>14.922672589333382</v>
           </cell>
         </row>
         <row r="14">
@@ -15657,23 +17917,32 @@
           <cell r="M14">
             <v>0.90762858516800005</v>
           </cell>
+          <cell r="P14">
+            <v>12.0032834765</v>
+          </cell>
           <cell r="AD14">
             <v>-1.8833367834300265</v>
           </cell>
           <cell r="AE14">
             <v>11.799224683651081</v>
           </cell>
+          <cell r="AH14">
+            <v>1.0586993831843472</v>
+          </cell>
           <cell r="AI14">
-            <v>0.24948412813386528</v>
+            <v>0.15961529964248958</v>
+          </cell>
+          <cell r="AJ14">
+            <v>4.176390546437788</v>
           </cell>
           <cell r="AP14">
-            <v>1.3310353500514012</v>
+            <v>1.429553048565354</v>
           </cell>
           <cell r="AS14">
-            <v>-2.7743349654589533</v>
+            <v>-2.8976225585392004</v>
           </cell>
           <cell r="AU14">
-            <v>16.356665159098782</v>
+            <v>16.36942632453</v>
           </cell>
         </row>
         <row r="15">
@@ -15686,23 +17955,32 @@
           <cell r="M15">
             <v>1.09031226952</v>
           </cell>
+          <cell r="P15">
+            <v>13.000307788300001</v>
+          </cell>
           <cell r="AD15">
             <v>-2.0951970683876726</v>
           </cell>
           <cell r="AE15">
             <v>12.842394085569522</v>
           </cell>
+          <cell r="AH15">
+            <v>1.0431694019184405</v>
+          </cell>
           <cell r="AI15">
-            <v>0.20309288651299057</v>
+            <v>0.16314692217255353</v>
+          </cell>
+          <cell r="AJ15">
+            <v>4.068841882430303</v>
           </cell>
           <cell r="AP15">
-            <v>1.321816061075151</v>
+            <v>1.4202595012808454</v>
           </cell>
           <cell r="AS15">
-            <v>-3.0573167052239105</v>
+            <v>-3.3341297230035969</v>
           </cell>
           <cell r="AU15">
-            <v>17.750026318239414</v>
+            <v>17.760816569217955</v>
           </cell>
         </row>
         <row r="16">
@@ -15715,23 +17993,32 @@
           <cell r="M16">
             <v>1.2612146468000001</v>
           </cell>
+          <cell r="P16">
+            <v>14.0006306308</v>
+          </cell>
           <cell r="AD16">
             <v>-2.4463817128654188</v>
           </cell>
           <cell r="AE16">
             <v>13.939128383436827</v>
           </cell>
+          <cell r="AH16">
+            <v>1.0967342978673056</v>
+          </cell>
           <cell r="AI16">
-            <v>0.32020941185176305</v>
+            <v>0.17550464028814977</v>
+          </cell>
+          <cell r="AJ16">
+            <v>3.9821178597184934</v>
           </cell>
           <cell r="AP16">
-            <v>1.3139888388488756</v>
+            <v>1.4126303328574779</v>
           </cell>
           <cell r="AS16">
-            <v>-3.4566943178206224</v>
+            <v>-5.1809322134181768</v>
           </cell>
           <cell r="AU16">
-            <v>18.997265149500247</v>
+            <v>18.99738786125258</v>
           </cell>
         </row>
       </sheetData>
@@ -15765,7 +18052,7 @@
             <v>7.9876845878364592E-11</v>
           </cell>
           <cell r="AS2">
-            <v>0</v>
+            <v>3.4700305231157957E-4</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
@@ -15787,11 +18074,17 @@
           <cell r="AE3">
             <v>0.78844564873822742</v>
           </cell>
+          <cell r="AI3">
+            <v>1.8729926309713228E-2</v>
+          </cell>
+          <cell r="AJ3">
+            <v>11.234514147641812</v>
+          </cell>
           <cell r="AS3">
-            <v>3.2150364136063501E-4</v>
+            <v>3.4846971352937947E-2</v>
           </cell>
           <cell r="AU3">
-            <v>0.57667000534880608</v>
+            <v>0.6224074202883092</v>
           </cell>
         </row>
         <row r="4">
@@ -15804,23 +18097,32 @@
           <cell r="M4">
             <v>-0.17046216753400001</v>
           </cell>
+          <cell r="P4">
+            <v>2.00575144974</v>
+          </cell>
           <cell r="AD4">
             <v>7.5301987622554467E-2</v>
           </cell>
           <cell r="AE4">
             <v>1.6206165472530574</v>
           </cell>
+          <cell r="AH4">
+            <v>0.83217089851482995</v>
+          </cell>
           <cell r="AI4">
-            <v>-0.10823439834700059</v>
+            <v>-4.6465024530442579E-2</v>
+          </cell>
+          <cell r="AJ4">
+            <v>8.2505576928794238</v>
           </cell>
           <cell r="AP4">
-            <v>1.6235399819788612</v>
+            <v>1.6948092528357286</v>
           </cell>
           <cell r="AS4">
-            <v>5.1185721310357493E-2</v>
+            <v>-1.0862876522664107E-2</v>
           </cell>
           <cell r="AU4">
-            <v>1.0466150361875755</v>
+            <v>0.74996132478327326</v>
           </cell>
         </row>
         <row r="5">
@@ -15833,23 +18135,32 @@
           <cell r="M5">
             <v>-0.14791625707600001</v>
           </cell>
+          <cell r="P5">
+            <v>3.00595902406</v>
+          </cell>
           <cell r="AD5">
             <v>-2.0343218828634546E-2</v>
           </cell>
           <cell r="AE5">
             <v>2.5471234733867654</v>
           </cell>
+          <cell r="AH5">
+            <v>0.926506926133708</v>
+          </cell>
           <cell r="AI5">
-            <v>0.10323204689932999</v>
+            <v>7.9867423158663468E-3</v>
+          </cell>
+          <cell r="AJ5">
+            <v>6.805175075321956</v>
           </cell>
           <cell r="AP5">
-            <v>1.530953324207476</v>
+            <v>1.6151387088293911</v>
           </cell>
           <cell r="AS5">
-            <v>-1.1922295277035116E-2</v>
+            <v>5.0608412398516558E-2</v>
           </cell>
           <cell r="AU5">
-            <v>1.6579369898143832</v>
+            <v>1.3601135598282654</v>
           </cell>
         </row>
         <row r="6">
@@ -15862,23 +18173,32 @@
           <cell r="M6">
             <v>-0.13921555238700001</v>
           </cell>
+          <cell r="P6">
+            <v>4.0049613604200003</v>
+          </cell>
           <cell r="AD6">
             <v>8.2319284906789969E-2</v>
           </cell>
           <cell r="AE6">
             <v>3.4239152124484211</v>
           </cell>
+          <cell r="AH6">
+            <v>0.87679173906165575</v>
+          </cell>
           <cell r="AI6">
-            <v>-0.11708881272683309</v>
+            <v>-2.4042442583712215E-2</v>
+          </cell>
+          <cell r="AJ6">
+            <v>5.9258721918420578</v>
           </cell>
           <cell r="AP6">
-            <v>1.4707244592370008</v>
+            <v>1.5602280093024956</v>
           </cell>
           <cell r="AS6">
-            <v>7.5721171626574837E-2</v>
+            <v>-1.0689184303055562E-2</v>
           </cell>
           <cell r="AU6">
-            <v>2.40645826065587</v>
+            <v>2.1049613500086681</v>
           </cell>
         </row>
         <row r="7">
@@ -15891,23 +18211,32 @@
           <cell r="M7">
             <v>-9.1703472768000005E-2</v>
           </cell>
+          <cell r="P7">
+            <v>5.0012490301800003</v>
+          </cell>
           <cell r="AD7">
             <v>-1.6043042656769702E-2</v>
           </cell>
           <cell r="AE7">
             <v>4.3781385242079391</v>
           </cell>
+          <cell r="AH7">
+            <v>0.95422331175951802</v>
+          </cell>
           <cell r="AI7">
-            <v>0.10308103601261505</v>
+            <v>3.6643524566578422E-3</v>
+          </cell>
+          <cell r="AJ7">
+            <v>5.3326451134334727</v>
           </cell>
           <cell r="AP7">
-            <v>1.4273635832401048</v>
+            <v>1.5196223438644587</v>
           </cell>
           <cell r="AS7">
-            <v>-8.1944069135534842E-3</v>
+            <v>1.8733192295169024E-2</v>
           </cell>
           <cell r="AU7">
-            <v>3.2205321367649415</v>
+            <v>2.9170731880975134</v>
           </cell>
         </row>
         <row r="8">
@@ -15920,23 +18249,32 @@
           <cell r="M8">
             <v>-3.4166949028599999E-2</v>
           </cell>
+          <cell r="P8">
+            <v>6.00125063603</v>
+          </cell>
           <cell r="AD8">
             <v>2.6139887307207399E-2</v>
           </cell>
           <cell r="AE8">
             <v>5.2990118274572842</v>
           </cell>
+          <cell r="AH8">
+            <v>0.92087330324934502</v>
+          </cell>
           <cell r="AI8">
-            <v>-4.5807528370224913E-2</v>
+            <v>-4.932973950305476E-3</v>
+          </cell>
+          <cell r="AJ8">
+            <v>4.9020523295982743</v>
           </cell>
           <cell r="AP8">
-            <v>1.3943094247322672</v>
+            <v>1.4879710640969215</v>
           </cell>
           <cell r="AS8">
-            <v>3.216627453248954E-2</v>
+            <v>-5.4579650135115863E-2</v>
           </cell>
           <cell r="AU8">
-            <v>4.1016248933930788</v>
+            <v>3.797545351726249</v>
           </cell>
         </row>
         <row r="9">
@@ -15949,23 +18287,32 @@
           <cell r="M9">
             <v>7.9814074845900002E-2</v>
           </cell>
+          <cell r="P9">
+            <v>7.0049336642000002</v>
+          </cell>
           <cell r="AD9">
             <v>-7.2642923190290976E-2</v>
           </cell>
           <cell r="AE9">
             <v>6.2776536759509556</v>
           </cell>
+          <cell r="AH9">
+            <v>0.97864184849367142</v>
+          </cell>
           <cell r="AI9">
-            <v>0.10093867398941214</v>
+            <v>1.157166784599452E-2</v>
+          </cell>
+          <cell r="AJ9">
+            <v>4.5707346325188603</v>
           </cell>
           <cell r="AP9">
-            <v>1.367903658004811</v>
+            <v>1.4621653972917923</v>
           </cell>
           <cell r="AS9">
-            <v>-6.0849683540205722E-2</v>
+            <v>-7.3853759859940485E-2</v>
           </cell>
           <cell r="AU9">
-            <v>5.0231345031037442</v>
+            <v>4.7166623568450126</v>
           </cell>
         </row>
         <row r="10">
@@ -15978,23 +18325,32 @@
           <cell r="M10">
             <v>0.18195188095699999</v>
           </cell>
+          <cell r="P10">
+            <v>8.0019384663200004</v>
+          </cell>
           <cell r="AD10">
             <v>-9.4343759103296065E-2</v>
           </cell>
           <cell r="AE10">
             <v>7.2305419317242237</v>
           </cell>
+          <cell r="AH10">
+            <v>0.95288825577326808</v>
+          </cell>
           <cell r="AI10">
-            <v>2.277374684967114E-2</v>
+            <v>1.3047951314597864E-2</v>
+          </cell>
+          <cell r="AJ10">
+            <v>4.310990629646497</v>
           </cell>
           <cell r="AP10">
-            <v>1.3462471260541777</v>
+            <v>1.4409345995742127</v>
           </cell>
           <cell r="AS10">
-            <v>-8.2339058476423144E-2</v>
+            <v>-0.11750779094994979</v>
           </cell>
           <cell r="AU10">
-            <v>5.9667374630412615</v>
+            <v>5.66018052024108</v>
           </cell>
         </row>
         <row r="11">
@@ -16007,23 +18363,32 @@
           <cell r="M11">
             <v>0.28609701869900001</v>
           </cell>
+          <cell r="P11">
+            <v>9.0038048627999991</v>
+          </cell>
           <cell r="AD11">
             <v>-0.14573214545708968</v>
           </cell>
           <cell r="AE11">
             <v>8.203357726998961</v>
           </cell>
+          <cell r="AH11">
+            <v>0.97281579527473738</v>
+          </cell>
           <cell r="AI11">
-            <v>5.2824374977670653E-2</v>
+            <v>1.776493849310689E-2</v>
+          </cell>
+          <cell r="AJ11">
+            <v>4.1003129562455118</v>
           </cell>
           <cell r="AP11">
-            <v>1.3281775970539018</v>
+            <v>1.4229978744515255</v>
           </cell>
           <cell r="AS11">
-            <v>-0.13279211680998931</v>
+            <v>-0.23115634062071244</v>
           </cell>
           <cell r="AU11">
-            <v>6.9218468865771428</v>
+            <v>6.6145903626711329</v>
           </cell>
         </row>
         <row r="12">
@@ -16036,23 +18401,32 @@
           <cell r="M12">
             <v>0.409721690832</v>
           </cell>
+          <cell r="P12">
+            <v>10.004210800299999</v>
+          </cell>
           <cell r="AD12">
             <v>-0.2816048182329749</v>
           </cell>
           <cell r="AE12">
             <v>9.2076430177192403</v>
           </cell>
+          <cell r="AH12">
+            <v>1.0042852907202793</v>
+          </cell>
           <cell r="AI12">
-            <v>0.13529290335262856</v>
+            <v>3.0583811480424793E-2</v>
+          </cell>
+          <cell r="AJ12">
+            <v>3.9274057902103929</v>
           </cell>
           <cell r="AP12">
-            <v>1.3128555638706789</v>
+            <v>1.4077529432683171</v>
           </cell>
           <cell r="AS12">
-            <v>-0.26104147370760905</v>
+            <v>-0.29746357683794766</v>
           </cell>
           <cell r="AU12">
-            <v>7.8697854237770546</v>
+            <v>7.5581273043310588</v>
           </cell>
         </row>
         <row r="13">
@@ -16065,23 +18439,32 @@
           <cell r="M13">
             <v>0.537214693859</v>
           </cell>
+          <cell r="P13">
+            <v>11.0004755409</v>
+          </cell>
           <cell r="AD13">
             <v>-0.35619294230078413</v>
           </cell>
           <cell r="AE13">
             <v>10.190712166579036</v>
           </cell>
+          <cell r="AH13">
+            <v>0.98306914885979602</v>
+          </cell>
           <cell r="AI13">
-            <v>7.5872713688878962E-2</v>
+            <v>3.4952703646064814E-2</v>
+          </cell>
+          <cell r="AJ13">
+            <v>3.780311704343732</v>
           </cell>
           <cell r="AP13">
-            <v>1.299624236942982</v>
+            <v>1.3943824330424046</v>
           </cell>
           <cell r="AS13">
-            <v>-0.33338289957565476</v>
+            <v>-0.37747126331782882</v>
           </cell>
           <cell r="AU13">
-            <v>8.8232431604369879</v>
+            <v>8.5104597300998499</v>
           </cell>
         </row>
         <row r="14">
@@ -16094,23 +18477,32 @@
           <cell r="M14">
             <v>0.68113506698199999</v>
           </cell>
+          <cell r="P14">
+            <v>12.001812181</v>
+          </cell>
           <cell r="AD14">
             <v>-0.44622018099411775</v>
           </cell>
           <cell r="AE14">
             <v>11.186873665065443</v>
           </cell>
+          <cell r="AH14">
+            <v>0.99616149848640667</v>
+          </cell>
           <cell r="AI14">
-            <v>9.0374139966384284E-2</v>
+            <v>3.9887835900711176E-2</v>
+          </cell>
+          <cell r="AJ14">
+            <v>3.6533616335326289</v>
           </cell>
           <cell r="AP14">
-            <v>1.2879526989524848</v>
+            <v>1.3825255493784567</v>
           </cell>
           <cell r="AS14">
-            <v>-0.41964315204427305</v>
+            <v>-0.46362982258845914</v>
           </cell>
           <cell r="AU14">
-            <v>9.7777225336371494</v>
+            <v>9.4633176955859621</v>
           </cell>
         </row>
         <row r="15">
@@ -16123,23 +18515,32 @@
           <cell r="M15">
             <v>0.83207019150600003</v>
           </cell>
+          <cell r="P15">
+            <v>13.0036738642</v>
+          </cell>
           <cell r="AD15">
             <v>-0.54446467565305579</v>
           </cell>
           <cell r="AE15">
             <v>12.189923798057709</v>
           </cell>
+          <cell r="AH15">
+            <v>1.0030501329922661</v>
+          </cell>
           <cell r="AI15">
-            <v>9.7945747104243225E-2</v>
+            <v>4.4665141855916156E-2</v>
+          </cell>
+          <cell r="AJ15">
+            <v>3.546203292544488</v>
           </cell>
           <cell r="AP15">
-            <v>1.2777264128670414</v>
+            <v>1.3722742280835523</v>
           </cell>
           <cell r="AS15">
-            <v>-0.50962247074711386</v>
+            <v>-0.53824225239475298</v>
           </cell>
           <cell r="AU15">
-            <v>10.696387420710563</v>
+            <v>10.380126499632924</v>
           </cell>
         </row>
         <row r="16">
@@ -16152,23 +18553,32 @@
           <cell r="M16">
             <v>0.99867697951599999</v>
           </cell>
+          <cell r="P16">
+            <v>14.000659857600001</v>
+          </cell>
           <cell r="AD16">
             <v>-0.62930760686620069</v>
           </cell>
           <cell r="AE16">
             <v>13.186169417201416</v>
           </cell>
+          <cell r="AH16">
+            <v>0.99624561914370702</v>
+          </cell>
           <cell r="AI16">
-            <v>8.5162664289624768E-2</v>
+            <v>4.7724823408173883E-2</v>
+          </cell>
+          <cell r="AJ16">
+            <v>3.4528127862433831</v>
           </cell>
           <cell r="AP16">
-            <v>1.2687561598004613</v>
+            <v>1.3631487756058986</v>
           </cell>
           <cell r="AS16">
-            <v>-0.58619265706902346</v>
+            <v>-0.67424324819213377</v>
           </cell>
           <cell r="AU16">
-            <v>11.595492526928311</v>
+            <v>11.278035495099742</v>
           </cell>
         </row>
         <row r="17">
@@ -16181,23 +18591,32 @@
           <cell r="M17">
             <v>1.15082212085</v>
           </cell>
+          <cell r="P17">
+            <v>15.0036349649</v>
+          </cell>
           <cell r="AD17">
             <v>-0.78874501246859596</v>
           </cell>
           <cell r="AE17">
             <v>14.215500696200856</v>
           </cell>
+          <cell r="AH17">
+            <v>1.0293312789994395</v>
+          </cell>
           <cell r="AI17">
-            <v>0.15489416172932804</v>
+            <v>5.5484856237205275E-2</v>
+          </cell>
+          <cell r="AJ17">
+            <v>3.3706654309529607</v>
           </cell>
           <cell r="AP17">
-            <v>1.2607418217171571</v>
+            <v>1.3549676039638074</v>
           </cell>
           <cell r="AS17">
-            <v>-0.72225722971031825</v>
+            <v>-0.77046234225206334</v>
           </cell>
           <cell r="AU17">
-            <v>12.47392829960167</v>
+            <v>12.151842753447029</v>
           </cell>
         </row>
         <row r="18">
@@ -16210,23 +18629,32 @@
           <cell r="M18">
             <v>1.30401064566</v>
           </cell>
+          <cell r="P18">
+            <v>16.0001474024</v>
+          </cell>
           <cell r="AD18">
             <v>-0.90299144530498499</v>
           </cell>
           <cell r="AE18">
             <v>15.2256821864807</v>
           </cell>
+          <cell r="AH18">
+            <v>1.0101814902798445</v>
+          </cell>
           <cell r="AI18">
-            <v>0.11309495762463438</v>
+            <v>5.9307125568848124E-2</v>
+          </cell>
+          <cell r="AJ18">
+            <v>3.2989793993605172</v>
           </cell>
           <cell r="AP18">
-            <v>1.2535900285927311</v>
-          </cell>
-          <cell r="AS18">
-            <v>-0.81739054542913059</v>
+            <v>1.3477051901862307</v>
+          </cell>
+          <cell r="AS18" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="AU18">
-            <v>13.315109177307667</v>
+            <v>12.991058576218684</v>
           </cell>
         </row>
       </sheetData>
@@ -17052,8 +19480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP4" activeCellId="1" sqref="AI4:AI13 AP4:AP13"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17187,55 +19615,55 @@
         <v>36</v>
       </c>
       <c r="AI1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>39</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>40</v>
       </c>
       <c r="AM1" t="s">
         <v>31</v>
       </c>
       <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -17364,8 +19792,9 @@
         <f>(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
         <v>17347.294124695229</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
+      <c r="AS2" s="3">
+        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
+        <v>-9.9912079165236393E-4</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -17482,8 +19911,8 @@
         <v>0.83001552312735494</v>
       </c>
       <c r="AI3" s="3">
-        <f>-AG3/AH3</f>
-        <v>-5.5751753754932297E-4</v>
+        <f>-AD3/AE3</f>
+        <v>1.7531927064451057E-3</v>
       </c>
       <c r="AJ3" s="3">
         <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
@@ -17499,54 +19928,54 @@
       </c>
       <c r="AM3" s="3">
         <f t="shared" si="4"/>
-        <v>-0.49972129302590063</v>
+        <v>-0.50087710893355086</v>
       </c>
       <c r="AN3" s="3">
         <f t="shared" si="5"/>
-        <v>-0.19222344220494914</v>
+        <v>-0.18145651430690002</v>
       </c>
       <c r="AO3" s="3">
         <v>101572.6414392595</v>
       </c>
       <c r="AP3" s="3">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.8644455466584113</v>
+        <f>AJ3^0.25</f>
+        <v>1.9006030448310756</v>
       </c>
       <c r="AQ3" s="3">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.9256437007628815</v>
+        <v>6.1863060996172514</v>
       </c>
       <c r="AR3" s="3">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>2.818437321920573E-4</v>
+        <v>-9.0759292422864049E-4</v>
       </c>
       <c r="AS3" s="3">
-        <f>(AS2+AR3)</f>
-        <v>2.818437321920573E-4</v>
+        <f t="shared" ref="AS3:AS18" si="10">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>-9.297893645507585E-2</v>
       </c>
       <c r="AT3" s="3">
         <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.50553339260132379</v>
+        <v>0.51768007070311328</v>
       </c>
       <c r="AU3" s="3">
-        <f>AU2+AT3</f>
-        <v>0.50553339260132379</v>
+        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>0.56988646369531104</v>
       </c>
       <c r="AV3" s="3">
-        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-80.998666273475536</v>
+        <f t="shared" ref="AV3:AV18" si="11">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-76.284873347580074</v>
       </c>
       <c r="AW3" s="3">
-        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-479.96923657361532</v>
+        <f t="shared" ref="AW3:AW18" si="12">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-471.92157729866426</v>
       </c>
       <c r="AX3" s="3">
-        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>568.17494001047032</v>
+        <f t="shared" ref="AX3:AX18" si="13">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>572.88873293636584</v>
       </c>
       <c r="AY3" s="3">
-        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6107.8925662284928</v>
+        <f t="shared" ref="AY3:AY18" si="14">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>6115.9402255034438</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -17659,12 +20088,12 @@
         <f t="shared" si="9"/>
         <v>0.92897934096094958</v>
       </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI18" si="14">-AG4/AH4</f>
-        <v>0.12411009023196509</v>
+      <c r="AI4" s="3">
+        <f t="shared" ref="AI4:AI18" si="15">-AD4/AE4</f>
+        <v>6.6373637182876019E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
+        <f t="shared" ref="AJ4:AJ18" si="16">(1.35*(AK4/3255000)^-0.0723)^4</f>
         <v>9.7738840042036443</v>
       </c>
       <c r="AK4">
@@ -17677,54 +20106,54 @@
       </c>
       <c r="AM4">
         <f t="shared" si="4"/>
-        <v>-0.56473305348568203</v>
+        <v>-0.53393767421653082</v>
       </c>
       <c r="AN4">
         <f t="shared" si="5"/>
-        <v>-0.23484443895448412</v>
+        <v>-0.21539336541966322</v>
       </c>
       <c r="AO4" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="16">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.6909538739917969</v>
+      <c r="AP4" s="3">
+        <f t="shared" ref="AP4:AP18" si="17">AJ4^0.25</f>
+        <v>1.7681405943526642</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="17">(2*AP4+3)/(3-AP4)</f>
-        <v>4.8752351969785375</v>
+        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
+        <v>5.3060285603538873</v>
       </c>
       <c r="AR4">
-        <f t="shared" ref="AR4:AR18" si="18">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-0.10325745867679526</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" ref="AS4:AS18" si="19">AS3+AR4</f>
-        <v>-0.10297561494460319</v>
+        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>-5.8746799314354191E-2</v>
+      </c>
+      <c r="AS4" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.26346339291530602</v>
       </c>
       <c r="AT4">
         <f t="shared" ref="AT4:AT18" si="20">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.83198278628115063</v>
-      </c>
-      <c r="AU4">
-        <f>AU3+AT4</f>
-        <v>1.3375161788824745</v>
+        <v>0.88509236208484621</v>
+      </c>
+      <c r="AU4" s="3">
+        <f t="shared" ref="AU4:AU18" si="21">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>1.4008413641532975</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="10"/>
-        <v>-119.96575544383595</v>
+        <f t="shared" si="11"/>
+        <v>-116.02955540466495</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="11"/>
-        <v>-584.86127337190851</v>
+        <f t="shared" si="12"/>
+        <v>-615.65613482231595</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="12"/>
-        <v>10395.898151553842</v>
+        <f t="shared" si="13"/>
+        <v>10399.834351593014</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="13"/>
-        <v>64469.491757232739</v>
+        <f t="shared" si="14"/>
+        <v>64438.696895782326</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -17837,12 +20266,12 @@
         <f t="shared" si="9"/>
         <v>0.98266550827721311</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="14"/>
-        <v>0.19072253974779704</v>
+      <c r="AI5" s="3">
+        <f t="shared" si="15"/>
+        <v>0.110942752570691</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.2508169587925995</v>
       </c>
       <c r="AK5">
@@ -17855,54 +20284,54 @@
       </c>
       <c r="AM5">
         <f t="shared" si="4"/>
-        <v>-0.60183537000863285</v>
+        <v>-0.55760153385818589</v>
       </c>
       <c r="AN5">
         <f t="shared" si="5"/>
-        <v>-0.25860412105720343</v>
+        <v>-0.23513420924878239</v>
       </c>
       <c r="AO5" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP5">
-        <f t="shared" si="16"/>
-        <v>1.6027555746450712</v>
+      <c r="AP5" s="3">
+        <f t="shared" si="17"/>
+        <v>1.6948225671202617</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="17"/>
-        <v>4.4412495313508336</v>
+        <f t="shared" si="18"/>
+        <v>4.8956141695941184</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="18"/>
-        <v>-0.18622112154587389</v>
-      </c>
-      <c r="AS5">
         <f t="shared" si="19"/>
-        <v>-0.28919673649047706</v>
+        <v>-0.11679785902410106</v>
+      </c>
+      <c r="AS5" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.50470768860560822</v>
       </c>
       <c r="AT5">
         <f t="shared" si="20"/>
-        <v>0.97639807959837588</v>
-      </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
-        <v>2.3139142584808505</v>
+        <v>1.0527759255808906</v>
+      </c>
+      <c r="AU5" s="3">
+        <f t="shared" si="21"/>
+        <v>2.3747688497942305</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="10"/>
-        <v>-145.46850926358766</v>
+        <f t="shared" si="11"/>
+        <v>-141.98769178035431</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="11"/>
-        <v>-646.06194859321317</v>
+        <f t="shared" si="12"/>
+        <v>-695.11695578786509</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="12"/>
-        <v>31858.374531746125</v>
+        <f t="shared" si="13"/>
+        <v>31861.855349229358</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="13"/>
-        <v>169167.24326808736</v>
+        <f t="shared" si="14"/>
+        <v>169118.1882608927</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -18015,12 +20444,12 @@
         <f t="shared" si="9"/>
         <v>1.0160193251756273</v>
       </c>
-      <c r="AI6">
-        <f t="shared" si="14"/>
-        <v>0.2374413363329626</v>
+      <c r="AI6" s="3">
+        <f t="shared" si="15"/>
+        <v>0.14514604183816554</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.3018797173413237</v>
       </c>
       <c r="AK6">
@@ -18033,54 +20462,54 @@
       </c>
       <c r="AM6">
         <f t="shared" si="4"/>
-        <v>-0.62892468463517526</v>
+        <v>-0.57626276718457148</v>
       </c>
       <c r="AN6">
         <f t="shared" si="5"/>
-        <v>-0.27397428720618616</v>
+        <v>-0.24928723877699291</v>
       </c>
       <c r="AO6" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP6">
-        <f t="shared" si="16"/>
-        <v>1.546856764002601</v>
+      <c r="AP6" s="3">
+        <f t="shared" si="17"/>
+        <v>1.6438366865755476</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="17"/>
-        <v>4.1934706621144873</v>
+        <f t="shared" si="18"/>
+        <v>4.6363688730629873</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="18"/>
-        <v>-0.26263983776050398</v>
-      </c>
-      <c r="AS6">
         <f t="shared" si="19"/>
-        <v>-0.55183657425098098</v>
+        <v>-0.17391157537111243</v>
+      </c>
+      <c r="AS6" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.77901084233959894</v>
       </c>
       <c r="AT6">
         <f t="shared" si="20"/>
-        <v>1.1061251668168073</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="21">AU5+AT6</f>
-        <v>3.4200394252976576</v>
+        <v>1.1981833825342598</v>
+      </c>
+      <c r="AU6" s="3">
+        <f t="shared" si="21"/>
+        <v>3.477240455294988</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="10"/>
-        <v>-163.74853225846536</v>
+        <f t="shared" si="11"/>
+        <v>-161.46933685839639</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="11"/>
-        <v>-686.67466599018223</v>
+        <f t="shared" si="12"/>
+        <v>-748.63140736439141</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="12"/>
-        <v>60748.237084350214</v>
+        <f t="shared" si="13"/>
+        <v>60750.516279750285</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="13"/>
-        <v>297514.90521679248</v>
+        <f t="shared" si="14"/>
+        <v>297452.94847541826</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -18193,12 +20622,12 @@
         <f t="shared" si="9"/>
         <v>1.0353749253925004</v>
       </c>
-      <c r="AI7">
-        <f t="shared" si="14"/>
-        <v>0.24947698905508078</v>
+      <c r="AI7" s="3">
+        <f t="shared" si="15"/>
+        <v>0.16768316172564396</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.6559697174068058</v>
       </c>
       <c r="AK7">
@@ -18211,54 +20640,54 @@
       </c>
       <c r="AM7">
         <f t="shared" si="4"/>
-        <v>-0.63605248241644874</v>
+        <v>-0.58880529861260589</v>
       </c>
       <c r="AN7">
         <f t="shared" si="5"/>
-        <v>-0.28914626012214756</v>
+        <v>-0.26058010040162033</v>
       </c>
       <c r="AO7" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP7">
-        <f t="shared" si="16"/>
-        <v>1.5065378630281099</v>
+      <c r="AP7" s="3">
+        <f t="shared" si="17"/>
+        <v>1.6062118822100988</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="17"/>
-        <v>4.0262659341656937</v>
+        <f t="shared" si="18"/>
+        <v>4.4572225039994597</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="18"/>
-        <v>-0.29236030897784832</v>
-      </c>
-      <c r="AS7">
         <f t="shared" si="19"/>
-        <v>-0.84419688322882935</v>
+        <v>-0.21347692415925262</v>
+      </c>
+      <c r="AS7" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.0754675438559556</v>
       </c>
       <c r="AT7">
         <f t="shared" si="20"/>
-        <v>1.1718928871363741</v>
-      </c>
-      <c r="AU7">
+        <v>1.2730969643125796</v>
+      </c>
+      <c r="AU7" s="3">
         <f t="shared" si="21"/>
-        <v>4.5919323124340314</v>
+        <v>4.645730879133728</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="10"/>
-        <v>-177.32866679854411</v>
+        <f t="shared" si="11"/>
+        <v>-171.68046196417262</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="11"/>
-        <v>-713.9723702819972</v>
+        <f t="shared" si="12"/>
+        <v>-765.21801856373349</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="12"/>
-        <v>96388.7765265403</v>
+        <f t="shared" si="13"/>
+        <v>96394.42473137466</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="13"/>
-        <v>447002.11194104026</v>
+        <f t="shared" si="14"/>
+        <v>446950.8662927585</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -18371,12 +20800,12 @@
         <f t="shared" si="9"/>
         <v>1.0418698530954273</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="14"/>
-        <v>0.26282564432133221</v>
+      <c r="AI8" s="3">
+        <f t="shared" si="15"/>
+        <v>0.18467157087340852</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.1925309185171971</v>
       </c>
       <c r="AK8">
@@ -18389,54 +20818,54 @@
       </c>
       <c r="AM8">
         <f t="shared" si="4"/>
-        <v>-0.6440311851760897</v>
+        <v>-0.59839255464629737</v>
       </c>
       <c r="AN8">
         <f t="shared" si="5"/>
-        <v>-0.30041810468634594</v>
+        <v>-0.26954621364411119</v>
       </c>
       <c r="AO8" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="16"/>
-        <v>1.4761673190222979</v>
+      <c r="AP8" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5774915657347806</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="17"/>
-        <v>3.906160244722888</v>
+        <f t="shared" si="18"/>
+        <v>4.3268517663649897</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="18"/>
-        <v>-0.31049705000549943</v>
-      </c>
-      <c r="AS8">
         <f t="shared" si="19"/>
-        <v>-1.1546939332343289</v>
+        <v>-0.23751679779084733</v>
+      </c>
+      <c r="AS8" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.4503852543903157</v>
       </c>
       <c r="AT8">
         <f t="shared" si="20"/>
-        <v>1.1813803436390851</v>
-      </c>
-      <c r="AU8">
+        <v>1.2861578892057191</v>
+      </c>
+      <c r="AU8" s="3">
         <f t="shared" si="21"/>
-        <v>5.7733126560731165</v>
+        <v>5.8236768050951593</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="10"/>
-        <v>-186.81185167275859</v>
+        <f t="shared" si="11"/>
+        <v>-179.49232398945048</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="11"/>
-        <v>-729.71702824719853</v>
+        <f t="shared" si="12"/>
+        <v>-776.6366791027109</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="12"/>
-        <v>136521.31305067361</v>
+        <f t="shared" si="13"/>
+        <v>136528.63257835692</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="13"/>
-        <v>608608.81376606016</v>
+        <f t="shared" si="14"/>
+        <v>608561.89411520469</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -18549,12 +20978,12 @@
         <f t="shared" si="9"/>
         <v>1.0798336106357196</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="14"/>
-        <v>0.3220392153852758</v>
+      <c r="AI9" s="3">
+        <f t="shared" si="15"/>
+        <v>0.20612339864140558</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.8294505820314475</v>
       </c>
       <c r="AK9">
@@ -18567,54 +20996,54 @@
       </c>
       <c r="AM9">
         <f t="shared" si="4"/>
-        <v>-0.68038308322256147</v>
+        <v>-0.61066526625111472</v>
       </c>
       <c r="AN9">
         <f t="shared" si="5"/>
-        <v>-0.30089601327942272</v>
+        <v>-0.27597837706450179</v>
       </c>
       <c r="AO9" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP9">
-        <f t="shared" si="16"/>
-        <v>1.4520598634137434</v>
+      <c r="AP9" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5538421792488497</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="17"/>
-        <v>3.8141783311130575</v>
+        <f t="shared" si="18"/>
+        <v>4.2233871510132284</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="18"/>
-        <v>-0.39275996792293744</v>
-      </c>
-      <c r="AS9">
         <f t="shared" si="19"/>
-        <v>-1.5474539011572663</v>
+        <v>-0.27346134031395619</v>
+      </c>
+      <c r="AS9" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.8110592228201072</v>
       </c>
       <c r="AT9">
         <f t="shared" si="20"/>
-        <v>1.2196029215046178</v>
-      </c>
-      <c r="AU9">
+        <v>1.3266875188182732</v>
+      </c>
+      <c r="AU9" s="3">
         <f t="shared" si="21"/>
-        <v>6.9929155775777341</v>
+        <v>7.0364901022884929</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="10"/>
-        <v>-200.44096574229616</v>
+        <f t="shared" si="11"/>
+        <v>-202.68018360478612</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="11"/>
-        <v>-764.51758820164071</v>
+        <f t="shared" si="12"/>
+        <v>-855.99688320145572</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="12"/>
-        <v>178873.02330587816</v>
+        <f t="shared" si="13"/>
+        <v>178870.78408801567</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="13"/>
-        <v>774059.81760455726</v>
+        <f t="shared" si="14"/>
+        <v>773968.33830955753</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -18727,12 +21156,12 @@
         <f t="shared" si="9"/>
         <v>1.0686120347696884</v>
       </c>
-      <c r="AI10">
-        <f t="shared" si="14"/>
-        <v>0.30494334157999914</v>
+      <c r="AI10" s="3">
+        <f t="shared" si="15"/>
+        <v>0.21935091768130638</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.539719254825064</v>
       </c>
       <c r="AK10">
@@ -18745,54 +21174,54 @@
       </c>
       <c r="AM10">
         <f t="shared" si="4"/>
-        <v>-0.66972370912534429</v>
+        <v>-0.61832718433049993</v>
       </c>
       <c r="AN10">
         <f t="shared" si="5"/>
-        <v>-0.31335299898135571</v>
+        <v>-0.28216877576335547</v>
       </c>
       <c r="AO10" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP10">
-        <f t="shared" si="16"/>
-        <v>1.4320845173354098</v>
+      <c r="AP10" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5341645347988995</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="17"/>
-        <v>3.7401053178612482</v>
+        <f t="shared" si="18"/>
+        <v>4.1398432591240892</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="18"/>
-        <v>-0.37333837604139752</v>
-      </c>
-      <c r="AS10">
         <f t="shared" si="19"/>
-        <v>-1.9207922771986639</v>
+        <v>-0.29269106275868162</v>
+      </c>
+      <c r="AS10" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.1922020668877007</v>
       </c>
       <c r="AT10">
         <f t="shared" si="20"/>
-        <v>1.2242876794981787</v>
-      </c>
-      <c r="AU10">
+        <v>1.3343507556413818</v>
+      </c>
+      <c r="AU10" s="3">
         <f t="shared" si="21"/>
-        <v>8.2172032570759121</v>
+        <v>8.2564469844223964</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="10"/>
-        <v>-204.63173287554307</v>
+        <f t="shared" si="11"/>
+        <v>-198.40841519702127</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="11"/>
-        <v>-765.34423233098119</v>
+        <f t="shared" si="12"/>
+        <v>-821.37974020688216</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="12"/>
-        <v>224145.87985432049</v>
+        <f t="shared" si="13"/>
+        <v>224152.10317199901</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="13"/>
-        <v>946753.72372827702</v>
+        <f t="shared" si="14"/>
+        <v>946697.68822040118</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -18905,12 +21334,12 @@
         <f t="shared" si="9"/>
         <v>1.0947098848993138</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="14"/>
-        <v>0.33064525064428962</v>
+      <c r="AI11" s="3">
+        <f t="shared" si="15"/>
+        <v>0.23277170779629058</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.312192777550087</v>
       </c>
       <c r="AK11">
@@ -18923,54 +21352,54 @@
       </c>
       <c r="AM11">
         <f t="shared" si="4"/>
-        <v>-0.68580066066008805</v>
+        <v>-0.62617591496810721</v>
       </c>
       <c r="AN11">
         <f t="shared" si="5"/>
-        <v>-0.31639774338512228</v>
+        <v>-0.28686032179946819</v>
       </c>
       <c r="AO11" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="16"/>
-        <v>1.4156299198831406</v>
+      <c r="AP11" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5181631886766809</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="17"/>
-        <v>3.6804910121353598</v>
+        <f t="shared" si="18"/>
+        <v>4.0735432749593823</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="18"/>
-        <v>-0.38570433269415699</v>
-      </c>
-      <c r="AS11">
         <f t="shared" si="19"/>
-        <v>-2.3064966098928208</v>
+        <v>-0.29593198634038476</v>
+      </c>
+      <c r="AS11" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.5216814804070466</v>
       </c>
       <c r="AT11">
         <f t="shared" si="20"/>
-        <v>1.1665201055892378</v>
-      </c>
-      <c r="AU11">
+        <v>1.2713400143945701</v>
+      </c>
+      <c r="AU11" s="3">
         <f t="shared" si="21"/>
-        <v>9.3837233626651493</v>
+        <v>9.4178200935235648</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="10"/>
-        <v>-214.68025482711073</v>
+        <f t="shared" si="11"/>
+        <v>-211.56094469242313</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="11"/>
-        <v>-790.12874837410982</v>
+        <f t="shared" si="12"/>
+        <v>-861.80266349587419</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="12"/>
-        <v>271024.33740237303</v>
+        <f t="shared" si="13"/>
+        <v>271027.45671250776</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="13"/>
-        <v>1122096.8901112257</v>
+        <f t="shared" si="14"/>
+        <v>1122025.216196104</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -19083,12 +21512,12 @@
         <f t="shared" si="9"/>
         <v>1.0770213540860425</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="14"/>
-        <v>0.29546617235273931</v>
+      <c r="AI12" s="3">
+        <f t="shared" si="15"/>
+        <v>0.23942090554488499</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.1262911045153903</v>
       </c>
       <c r="AK12">
@@ -19101,54 +21530,54 @@
       </c>
       <c r="AM12">
         <f t="shared" si="4"/>
-        <v>-0.66387269924246384</v>
+        <v>-0.63009276171027917</v>
       </c>
       <c r="AN12">
         <f t="shared" si="5"/>
-        <v>-0.33000121077054057</v>
+        <v>-0.29164246816766654</v>
       </c>
       <c r="AO12" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP12">
-        <f t="shared" si="16"/>
-        <v>1.4020191233857742</v>
+      <c r="AP12" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5047031015655952</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="17"/>
-        <v>3.6321074499145722</v>
+        <f t="shared" si="18"/>
+        <v>4.0188715762221641</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="18"/>
-        <v>-0.32998455149283268</v>
-      </c>
-      <c r="AS12">
         <f t="shared" si="19"/>
-        <v>-2.6364811613856536</v>
+        <v>-0.29224095357499263</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.8723409928364947</v>
       </c>
       <c r="AT12">
         <f t="shared" si="20"/>
-        <v>1.1168268396521681</v>
-      </c>
-      <c r="AU12">
+        <v>1.2206158560377065</v>
+      </c>
+      <c r="AU12" s="3">
         <f t="shared" si="21"/>
-        <v>10.500550202317317</v>
+        <v>10.532419776243387</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="10"/>
-        <v>-216.05910189331996</v>
+        <f t="shared" si="11"/>
+        <v>-200.66065654022387</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="11"/>
-        <v>-784.74987360857915</v>
+        <f t="shared" si="12"/>
+        <v>-806.4294090355836</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="12"/>
-        <v>316775.50669309567</v>
+        <f t="shared" si="13"/>
+        <v>316790.90513844875</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="13"/>
-        <v>1290494.1111894134</v>
+        <f t="shared" si="14"/>
+        <v>1290472.4316539865</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -19261,12 +21690,12 @@
         <f t="shared" si="9"/>
         <v>1.0963640506606325</v>
       </c>
-      <c r="AI13">
-        <f t="shared" si="14"/>
-        <v>0.32816665702320613</v>
+      <c r="AI13" s="3">
+        <f t="shared" si="15"/>
+        <v>0.24806845926385976</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.9740334426204216</v>
       </c>
       <c r="AK13">
@@ -19279,54 +21708,54 @@
       </c>
       <c r="AM13">
         <f t="shared" si="4"/>
-        <v>-0.68423678513809327</v>
+        <v>-0.63521509651953489</v>
       </c>
       <c r="AN13">
         <f t="shared" si="5"/>
-        <v>-0.32927471126961233</v>
+        <v>-0.29519487435351294</v>
       </c>
       <c r="AO13" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP13">
-        <f t="shared" si="16"/>
-        <v>1.3905741223861088</v>
+      <c r="AP13" s="3">
+        <f t="shared" si="17"/>
+        <v>1.4934035357656923</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="17"/>
-        <v>3.5920562264993867</v>
+        <f t="shared" si="18"/>
+        <v>3.9737296705883605</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="18"/>
-        <v>-0.34450207856628623</v>
-      </c>
-      <c r="AS13">
         <f t="shared" si="19"/>
-        <v>-2.9809832399519398</v>
+        <v>-0.28438181329275791</v>
+      </c>
+      <c r="AS13" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.4119204567004768</v>
       </c>
       <c r="AT13">
         <f t="shared" si="20"/>
-        <v>1.0497778223152181</v>
-      </c>
-      <c r="AU13">
+        <v>1.1463844058880266</v>
+      </c>
+      <c r="AU13" s="3">
         <f t="shared" si="21"/>
-        <v>11.550328024632535</v>
+        <v>11.578823851126151</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="10"/>
-        <v>-223.45209976992089</v>
+        <f t="shared" si="11"/>
+        <v>-214.67701440944759</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="11"/>
-        <v>-802.65250630290677</v>
+        <f t="shared" si="12"/>
+        <v>-853.06842175214706</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="12"/>
-        <v>361576.99385904265</v>
+        <f t="shared" si="13"/>
+        <v>361585.7689444031</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="13"/>
-        <v>1453226.876022072</v>
+        <f t="shared" si="14"/>
+        <v>1453176.4601066227</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -19439,12 +21868,12 @@
         <f t="shared" si="9"/>
         <v>1.1877356217348929</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="14"/>
-        <v>0.51800170249642463</v>
+      <c r="AI14" s="3">
+        <f t="shared" si="15"/>
+        <v>0.27384256867824996</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.8598844631679636</v>
       </c>
       <c r="AK14">
@@ -19457,54 +21886,54 @@
       </c>
       <c r="AM14">
         <f t="shared" si="4"/>
-        <v>-0.81305523236101951</v>
+        <v>-0.65067503009839756</v>
       </c>
       <c r="AN14">
         <f t="shared" si="5"/>
-        <v>-0.29692890687283852</v>
+        <v>-0.29462340731196729</v>
       </c>
       <c r="AO14" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP14">
-        <f t="shared" si="16"/>
-        <v>1.3813640061527404</v>
+      <c r="AP14" s="3">
+        <f t="shared" si="17"/>
+        <v>1.4847607767123541</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="17"/>
-        <v>3.5602371590714004</v>
+        <f t="shared" si="18"/>
+        <v>3.9396561689265894</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="18"/>
-        <v>-0.46385960793761527</v>
-      </c>
-      <c r="AS14">
         <f t="shared" si="19"/>
-        <v>-3.444842847889555</v>
+        <v>-0.26319644966636296</v>
+      </c>
+      <c r="AS14" s="3">
+        <f t="shared" si="10"/>
+        <v>-4.3268707450124042</v>
       </c>
       <c r="AT14">
         <f t="shared" si="20"/>
-        <v>0.89547892545935603</v>
-      </c>
-      <c r="AU14">
+        <v>0.96112321373819876</v>
+      </c>
+      <c r="AU14" s="3">
         <f t="shared" si="21"/>
-        <v>12.445806950091891</v>
+        <v>12.459423212281132</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="10"/>
-        <v>-240.96240067875488</v>
+        <f t="shared" si="11"/>
+        <v>-286.84185924353397</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="11"/>
-        <v>-857.88329283555481</v>
+        <f t="shared" si="12"/>
+        <v>-1130.0583002751612</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="12"/>
-        <v>404350.93746377464</v>
+        <f t="shared" si="13"/>
+        <v>404305.0580052099</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="13"/>
-        <v>1606880.9536782578</v>
+        <f t="shared" si="14"/>
+        <v>1606608.7786708181</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -19617,12 +22046,12 @@
         <f t="shared" si="9"/>
         <v>1.449766954427087</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="14"/>
-        <v>0.93556278808603388</v>
+      <c r="AI15" s="3">
+        <f t="shared" si="15"/>
+        <v>0.34291466301768925</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.8441274220909225</v>
       </c>
       <c r="AK15">
@@ -19635,54 +22064,54 @@
       </c>
       <c r="AM15">
         <f t="shared" si="4"/>
-        <v>-1.1797708227841874</v>
+        <v>-0.69358504876275939</v>
       </c>
       <c r="AN15">
         <f t="shared" si="5"/>
-        <v>-0.22712101975428206</v>
+        <v>-0.2834061352837618</v>
       </c>
       <c r="AO15" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP15">
-        <f t="shared" si="16"/>
-        <v>1.3768525284977273</v>
+      <c r="AP15" s="3">
+        <f t="shared" si="17"/>
+        <v>1.4835558130971578</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="17"/>
-        <v>3.5447826879650219</v>
+        <f t="shared" si="18"/>
+        <v>3.9349365296334673</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="18"/>
-        <v>-0.13322000914072685</v>
-      </c>
-      <c r="AS15">
         <f t="shared" si="19"/>
-        <v>-3.5780628570302819</v>
+        <v>-4.8316249236360541E-2</v>
+      </c>
+      <c r="AS15" s="3">
+        <f t="shared" si="10"/>
+        <v>-4.5211365384614446</v>
       </c>
       <c r="AT15">
         <f t="shared" si="20"/>
-        <v>0.14239558353241819</v>
-      </c>
-      <c r="AU15">
+        <v>0.14089875542553909</v>
+      </c>
+      <c r="AU15" s="3">
         <f t="shared" si="21"/>
-        <v>12.588202533624308</v>
+        <v>12.617922800195931</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="10"/>
-        <v>-271.52532846651644</v>
+        <f t="shared" si="11"/>
+        <v>-478.44089846662615</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="11"/>
-        <v>-962.49828369212332</v>
+        <f t="shared" si="12"/>
+        <v>-1882.6345686469842</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="12"/>
-        <v>440654.51282186882</v>
+        <f t="shared" si="13"/>
+        <v>440447.59725186869</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="13"/>
-        <v>1736134.4879556373</v>
+        <f t="shared" si="14"/>
+        <v>1735214.3516706824</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -19795,12 +22224,12 @@
         <f t="shared" si="9"/>
         <v>1.401601349770571</v>
       </c>
-      <c r="AI16">
-        <f t="shared" si="14"/>
-        <v>0.8209138794060914</v>
+      <c r="AI16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.3867301895727332</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.9669559585778957</v>
       </c>
       <c r="AK16">
@@ -19813,54 +22242,54 @@
       </c>
       <c r="AM16">
         <f t="shared" si="4"/>
-        <v>-1.0650858896634741</v>
+        <v>-0.72198063209717123</v>
       </c>
       <c r="AN16">
         <f t="shared" si="5"/>
-        <v>-0.24426394378636046</v>
+        <v>-0.27231641712706317</v>
       </c>
       <c r="AO16" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP16">
-        <f t="shared" si="16"/>
-        <v>1.3805491890323094</v>
+      <c r="AP16" s="3">
+        <f t="shared" si="17"/>
+        <v>1.4928720162141536</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="17"/>
-        <v>3.5574395585514065</v>
+        <f t="shared" si="18"/>
+        <v>3.9716229124698175</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="18"/>
-        <v>0.8452667789076469</v>
-      </c>
-      <c r="AS16">
         <f t="shared" si="19"/>
-        <v>-2.732796078122635</v>
+        <v>0.40890405538833174</v>
+      </c>
+      <c r="AS16" s="3">
+        <f t="shared" si="10"/>
+        <v>-5.0358825787628758</v>
       </c>
       <c r="AT16">
         <f t="shared" si="20"/>
-        <v>-1.0296655960052401</v>
-      </c>
-      <c r="AU16">
+        <v>-1.057336785214769</v>
+      </c>
+      <c r="AU16" s="3">
         <f t="shared" si="21"/>
-        <v>11.558536937619069</v>
+        <v>11.690673912622346</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="10"/>
-        <v>-269.02856145907526</v>
+        <f t="shared" si="11"/>
+        <v>-396.54257977174865</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="11"/>
-        <v>-957.05284691469251</v>
+        <f t="shared" si="12"/>
+        <v>-1574.9175955913672</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="12"/>
-        <v>445990.83341107809</v>
+        <f t="shared" si="13"/>
+        <v>445863.31939276541</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="13"/>
-        <v>1755047.1797380112</v>
+        <f t="shared" si="14"/>
+        <v>1754429.3149893344</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -19973,12 +22402,12 @@
         <f t="shared" si="9"/>
         <v>1.5250760460487225</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="14"/>
-        <v>1.0142571941132974</v>
+      <c r="AI17" s="3">
+        <f t="shared" si="15"/>
+        <v>0.44364304548788408</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0203931097863954</v>
       </c>
       <c r="AK17">
@@ -19991,54 +22420,54 @@
       </c>
       <c r="AM17">
         <f t="shared" si="4"/>
-        <v>-1.2661545023151148</v>
+        <v>-0.76031754566092313</v>
       </c>
       <c r="AN17">
         <f t="shared" si="5"/>
-        <v>-0.21196044116589297</v>
+        <v>-0.26166215002218768</v>
       </c>
       <c r="AO17" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP17">
-        <f t="shared" si="16"/>
-        <v>1.3867801218203846</v>
+      <c r="AP17" s="3">
+        <f t="shared" si="17"/>
+        <v>1.4968711952821967</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="17"/>
-        <v>3.5789047244791905</v>
+        <f t="shared" si="18"/>
+        <v>3.9875108319074863</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="18"/>
-        <v>0.4444970938400436</v>
-      </c>
-      <c r="AS17">
         <f t="shared" si="19"/>
-        <v>-2.2882989842825916</v>
+        <v>0.18982973499710903</v>
+      </c>
+      <c r="AS17" s="3">
+        <f t="shared" si="10"/>
+        <v>-4.9569208555155395</v>
       </c>
       <c r="AT17">
         <f t="shared" si="20"/>
-        <v>-0.43824889428429442</v>
-      </c>
-      <c r="AU17">
+        <v>-0.42788844979717666</v>
+      </c>
+      <c r="AU17" s="3">
         <f t="shared" si="21"/>
-        <v>11.120288043334774</v>
+        <v>11.351203698515786</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="10"/>
-        <v>-275.1766047929159</v>
+        <f t="shared" si="11"/>
+        <v>-475.41460495944301</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="11"/>
-        <v>-984.83085095950992</v>
+        <f t="shared" si="12"/>
+        <v>-1895.7208869227975</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="12"/>
-        <v>406457.11868517293</v>
+        <f t="shared" si="13"/>
+        <v>406256.88068500644</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="13"/>
-        <v>1614402.4723641085</v>
+        <f t="shared" si="14"/>
+        <v>1613491.5823281452</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -20151,12 +22580,12 @@
         <f t="shared" si="9"/>
         <v>1.2816061949811441</v>
       </c>
-      <c r="AI18">
-        <f t="shared" si="14"/>
-        <v>0.63367001290315461</v>
+      <c r="AI18" s="3">
+        <f t="shared" si="15"/>
+        <v>0.45710032310746018</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0955536395732635</v>
       </c>
       <c r="AK18">
@@ -20169,54 +22598,54 @@
       </c>
       <c r="AM18">
         <f t="shared" si="4"/>
-        <v>-0.90167898160343563</v>
+        <v>-0.76963332092560777</v>
       </c>
       <c r="AN18">
         <f t="shared" si="5"/>
-        <v>-0.27188904431871219</v>
+        <v>-0.25742906302136725</v>
       </c>
       <c r="AO18" s="3">
         <v>101572.6414392595</v>
       </c>
-      <c r="AP18">
-        <f t="shared" si="16"/>
-        <v>1.3912079023083341</v>
+      <c r="AP18" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5024424457266217</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="17"/>
-        <v>3.5942592041031403</v>
+        <f t="shared" si="18"/>
+        <v>4.0097857169615363</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="18"/>
-        <v>0.33803390117209753</v>
-      </c>
-      <c r="AS18">
         <f t="shared" si="19"/>
-        <v>-1.950265083110494</v>
+        <v>0.26136084483097033</v>
+      </c>
+      <c r="AS18" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AT18">
         <f t="shared" si="20"/>
-        <v>-0.53345415482641767</v>
-      </c>
-      <c r="AU18">
+        <v>-0.57178004831452856</v>
+      </c>
+      <c r="AU18" s="3">
         <f t="shared" si="21"/>
-        <v>10.586833888508357</v>
+        <v>10.844273357361443</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="10"/>
-        <v>-251.726566219228</v>
+        <f t="shared" si="11"/>
+        <v>-273.24224345738531</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="11"/>
-        <v>-904.77052755073896</v>
+        <f t="shared" si="12"/>
+        <v>-1095.6428450859505</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="12"/>
-        <v>390665.50912775466</v>
+        <f t="shared" si="13"/>
+        <v>390643.99345051649</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="13"/>
-        <v>1557881.9411815016</v>
+        <f t="shared" si="14"/>
+        <v>1557691.0688639663</v>
       </c>
     </row>
     <row r="35" spans="59:60" x14ac:dyDescent="0.25">

--- a/SMP_PP_e&p.xlsx
+++ b/SMP_PP_e&p.xlsx
@@ -1423,11 +1423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324670768"/>
-        <c:axId val="324671328"/>
+        <c:axId val="371562864"/>
+        <c:axId val="4982800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324670768"/>
+        <c:axId val="371562864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,12 +1484,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324671328"/>
+        <c:crossAx val="4982800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324671328"/>
+        <c:axId val="4982800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -1547,7 +1547,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324670768"/>
+        <c:crossAx val="371562864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2747,11 +2747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324749920"/>
-        <c:axId val="324750480"/>
+        <c:axId val="402185696"/>
+        <c:axId val="402186256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324749920"/>
+        <c:axId val="402185696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,12 +2808,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324750480"/>
+        <c:crossAx val="402186256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324750480"/>
+        <c:axId val="402186256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2870,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324749920"/>
+        <c:crossAx val="402185696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4065,11 +4065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328081040"/>
-        <c:axId val="328139120"/>
+        <c:axId val="402191296"/>
+        <c:axId val="402191856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328081040"/>
+        <c:axId val="402191296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4126,12 +4126,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328139120"/>
+        <c:crossAx val="402191856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328139120"/>
+        <c:axId val="402191856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,7 +4188,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328081040"/>
+        <c:crossAx val="402191296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4447,37 +4447,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.662677166467258E-3</c:v>
+                  <c:v>2.6394188340114998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10456404406228929</c:v>
+                  <c:v>-0.10365068312978618</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.3012035757052568</c:v>
+                  <c:v>-0.29857257973291718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.57694079092678296</c:v>
+                  <c:v>-0.57190124618149696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.91087029817855991</c:v>
+                  <c:v>-0.90291389832434099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.280175823550449</c:v>
+                  <c:v>-1.2689935610963552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.6881243968542208</c:v>
+                  <c:v>-1.673378726991132</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1212922039608548</c:v>
+                  <c:v>-2.1027628381267731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.5521438870067152</c:v>
+                  <c:v>-2.529851056412578</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.9804673369923798</c:v>
+                  <c:v>-2.9544331256090794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.3944419382855289</c:v>
+                  <c:v>-3.3647916824840873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4615,34 +4615,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5106196281815254E-3</c:v>
+                  <c:v>2.8682409254225123E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11670548030683139</c:v>
+                  <c:v>-9.5350527909666277E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.38220057421618969</c:v>
+                  <c:v>-0.31226491183686156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.73881343323063542</c:v>
+                  <c:v>-0.60362418885628366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1558493946142065</c:v>
+                  <c:v>-0.94435025391075467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.628335976484633</c:v>
+                  <c:v>-1.3303804976759379</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.090981331089766</c:v>
+                  <c:v>-1.7083702774238561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.5487131184172211</c:v>
+                  <c:v>-2.0823455821649923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.988162461318324</c:v>
+                  <c:v>-2.4413837929243494</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.4565871564976316</c:v>
+                  <c:v>-2.824095400415648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4795,49 +4795,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3666655414395487E-2</c:v>
+                  <c:v>3.0759430459542176E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0622531662948861E-2</c:v>
+                  <c:v>4.6251111766410877E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5007312528213772E-2</c:v>
+                  <c:v>4.1120785027268236E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6689816314390388E-2</c:v>
+                  <c:v>1.5248596511476243E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.2557338831289667E-2</c:v>
+                  <c:v>-2.9745906963499543E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.8709193020949951E-2</c:v>
+                  <c:v>-9.0185333858473327E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.18059729242374828</c:v>
+                  <c:v>-0.16500213012292875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.2736044192353333</c:v>
+                  <c:v>-0.24997778969437234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.3749287400336283</c:v>
+                  <c:v>-0.34255242655963219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.48516008062138249</c:v>
+                  <c:v>-0.44326493314920351</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.60060726262548048</c:v>
+                  <c:v>-0.54874287632162666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.71680831771382247</c:v>
+                  <c:v>-0.65490959319089315</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.83685945564802022</c:v>
+                  <c:v>-0.76459392575743912</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.95598127761086382</c:v>
+                  <c:v>-0.87342919180270584</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0732207890485583</c:v>
+                  <c:v>-0.98054469094541197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,34 +4975,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.7223361727561365E-2</c:v>
+                  <c:v>-1.7491989966976512E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16473540210151022</c:v>
+                  <c:v>-0.16730473680723495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.41676444099126086</c:v>
+                  <c:v>-0.42326460627868939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.75170010111758812</c:v>
+                  <c:v>-0.76342416973586924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1272969128264572</c:v>
+                  <c:v>-1.1448790660541928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5444862826730605</c:v>
+                  <c:v>-1.5685752286917338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.9857211363596043</c:v>
+                  <c:v>-2.0166919062515314</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.4393048903386214</c:v>
+                  <c:v>-2.4773500866512461</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.8811015772343125</c:v>
+                  <c:v>-2.9260373601848708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.2887267712509369</c:v>
+                  <c:v>-3.3400201770594489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5152,46 +5152,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3094942615051824E-2</c:v>
+                  <c:v>2.7871047660741888E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3438504169446887E-2</c:v>
+                  <c:v>1.1317293840098303E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.0171925263494144E-2</c:v>
+                  <c:v>-5.0674044562165434E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.1862128965447909</c:v>
+                  <c:v>-0.15681998832910013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.35506812234389629</c:v>
+                  <c:v>-0.29902213990109888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.55655891545878733</c:v>
+                  <c:v>-0.46870847425817136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.78495638091406328</c:v>
+                  <c:v>-0.66105437796133981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0355006132238735</c:v>
+                  <c:v>-0.87205127622019407</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2996818988679488</c:v>
+                  <c:v>-1.0945326773486352</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.5718910474503192</c:v>
+                  <c:v>-1.3237747776319184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.8496816696096254</c:v>
+                  <c:v>-1.5577173397920927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.1205873565211131</c:v>
+                  <c:v>-1.7858617242468373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.3883239876832785</c:v>
+                  <c:v>-2.011337274830006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.6321912775162115</c:v>
+                  <c:v>-2.2167111573862601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5347,52 +5347,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4314256458514236E-2</c:v>
+                  <c:v>2.6582036022260381E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5567185339419364E-2</c:v>
+                  <c:v>4.9817215845862517E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9450077126623126E-2</c:v>
+                  <c:v>6.499495859157442E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4713841244100331E-2</c:v>
+                  <c:v>7.0749671577439291E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1392624231301839E-2</c:v>
+                  <c:v>6.7118686175003162E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0257400111916053E-2</c:v>
+                  <c:v>5.4944884802031094E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2033283522961184E-2</c:v>
+                  <c:v>3.5021013205627213E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9615912043659275E-3</c:v>
+                  <c:v>8.7041651695195892E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.111671002354161E-2</c:v>
+                  <c:v>-2.3086255895801749E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.3991595640287139E-2</c:v>
+                  <c:v>-5.9027367037039549E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.0519525294777942E-2</c:v>
+                  <c:v>-9.8962239960297405E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.13019332125954503</c:v>
+                  <c:v>-0.14233639270375709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.17101219365716663</c:v>
+                  <c:v>-0.18696242263450874</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.21323485185281424</c:v>
+                  <c:v>-0.23312316882172224</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.2564517370456752</c:v>
+                  <c:v>-0.28037087310281461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.2995815704188779</c:v>
+                  <c:v>-0.32752340628089965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5407,11 +5407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328263616"/>
-        <c:axId val="328264176"/>
+        <c:axId val="402196896"/>
+        <c:axId val="402197456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328263616"/>
+        <c:axId val="402196896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5469,12 +5469,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328264176"/>
+        <c:crossAx val="402197456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328264176"/>
+        <c:axId val="402197456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5533,7 +5533,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328263616"/>
+        <c:crossAx val="402196896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5824,37 +5824,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48245731141774911</c:v>
+                  <c:v>0.47824307445129288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.275163909247619</c:v>
+                  <c:v>1.2640254255777361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.205677848919283</c:v>
+                  <c:v>2.1864113793124815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2604684007823801</c:v>
+                  <c:v>3.2319883961532407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3789215809758986</c:v>
+                  <c:v>4.3406719519143486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5077449441314901</c:v>
+                  <c:v>5.4596351076836527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6724538286307027</c:v>
+                  <c:v>6.6141703268241772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8441948038945188</c:v>
+                  <c:v>7.7756762118194729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9607478330776384</c:v>
+                  <c:v>8.8824762142803628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.033121184458711</c:v>
+                  <c:v>9.9454824458929476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.040594847259863</c:v>
+                  <c:v>10.94415588398607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5992,34 +5992,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29796729341295891</c:v>
+                  <c:v>0.24344476927770284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2712463511617844</c:v>
+                  <c:v>1.0386316937973123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4706762165856317</c:v>
+                  <c:v>2.0185879954045931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7408832337370073</c:v>
+                  <c:v>3.0563705341638863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0369301902511197</c:v>
+                  <c:v>4.1152647795278137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3751193265171802</c:v>
+                  <c:v>5.2085899622911489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6010708250903374</c:v>
+                  <c:v>6.2102149268880735</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7562057984839399</c:v>
+                  <c:v>7.1539814854971553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8239369535909162</c:v>
+                  <c:v>8.0263375140005451</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.926496242385863</c:v>
+                  <c:v>8.9271487694952061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6172,49 +6172,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1870230034961361</c:v>
+                  <c:v>0.17087296019058407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50321924373071303</c:v>
+                  <c:v>0.45976462891587783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91047520334820253</c:v>
+                  <c:v>0.83185271473541234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3913465683159183</c:v>
+                  <c:v>1.2711992767459936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9247892956008215</c:v>
+                  <c:v>1.7585774933256082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4843846231008935</c:v>
+                  <c:v>2.2698499482176726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0730175833354694</c:v>
+                  <c:v>2.8076525420205591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6674211850885996</c:v>
+                  <c:v>3.3507274637191657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2599526894221524</c:v>
+                  <c:v>3.8920919496859727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8605962611954805</c:v>
+                  <c:v>4.4408679997426947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4542044396608009</c:v>
+                  <c:v>4.9832161855358148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0238615678182272</c:v>
+                  <c:v>5.503681571944484</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.589207193244909</c:v>
+                  <c:v>6.0202077678755108</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1311498157812201</c:v>
+                  <c:v>6.5153518861665054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.6490189707637661</c:v>
+                  <c:v>6.988501358953644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6352,34 +6352,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54906667845482926</c:v>
+                  <c:v>0.55763032691602477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4212778826799393</c:v>
+                  <c:v>1.4434451797142367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4434585127279789</c:v>
+                  <c:v>2.4815684919957142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5680085207934531</c:v>
+                  <c:v>3.6236578105383939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6896070662809306</c:v>
+                  <c:v>4.7627496333181174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8381799191885282</c:v>
+                  <c:v>5.9292364746907467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9805866503057725</c:v>
+                  <c:v>7.0894610228944748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.099902431454252</c:v>
+                  <c:v>8.2262344776606628</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1494105801647176</c:v>
+                  <c:v>9.2921115287201275</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.08921760407131</c:v>
+                  <c:v>10.246576475407149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6529,46 +6529,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33264155303904169</c:v>
+                  <c:v>0.2801355085135509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89519459645539667</c:v>
+                  <c:v>0.75389196330255914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5850427169690464</c:v>
+                  <c:v>1.3348505124424708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4005630198125325</c:v>
+                  <c:v>2.0216444281544126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.288034657908824</c:v>
+                  <c:v>2.7690324689993258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2127277847859812</c:v>
+                  <c:v>3.5477667460315008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1638935121123852</c:v>
+                  <c:v>4.3487950369076263</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1326701331973368</c:v>
+                  <c:v>5.164654417385627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0959065710496141</c:v>
+                  <c:v>5.9758481088269928</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.042378926773166</c:v>
+                  <c:v>6.772923856707223</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9710135477321469</c:v>
+                  <c:v>7.5549774798608516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.8474746867837304</c:v>
+                  <c:v>8.2930929817800134</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.690188309700684</c:v>
+                  <c:v>9.0027878684541083</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.440392093061639</c:v>
+                  <c:v>9.6345751975492941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6724,52 +6724,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8958542774297914E-2</c:v>
+                  <c:v>0.10818836073498929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26760788235180755</c:v>
+                  <c:v>0.29256754697203885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48993378567090973</c:v>
+                  <c:v>0.53562968546652956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7541829787223977</c:v>
+                  <c:v>0.82452527972551692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0469728369402738</c:v>
+                  <c:v>1.1446235139190901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3599743312946466</c:v>
+                  <c:v>1.4868185142945074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6901125423582277</c:v>
+                  <c:v>1.8477485650978362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0268475556845562</c:v>
+                  <c:v>2.2158906988895666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3681075215615404</c:v>
+                  <c:v>2.5889798254838845</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7072118196369415</c:v>
+                  <c:v>2.9597122261280804</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0480860193470285</c:v>
+                  <c:v>3.332379606321799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3894240100751221</c:v>
+                  <c:v>3.7055540351093539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7180088097530235</c:v>
+                  <c:v>4.0647857885585363</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0396353975410078</c:v>
+                  <c:v>4.4164103408817503</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3536885520424722</c:v>
+                  <c:v>4.7597550892645089</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6546951463774295</c:v>
+                  <c:v>5.0888364307894678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6784,11 +6784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328448608"/>
-        <c:axId val="328449168"/>
+        <c:axId val="401768432"/>
+        <c:axId val="401768992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328448608"/>
+        <c:axId val="401768432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6845,12 +6845,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328449168"/>
+        <c:crossAx val="401768992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328449168"/>
+        <c:axId val="401768992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -6908,7 +6908,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328448608"/>
+        <c:crossAx val="401768432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8179,11 +8179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328901632"/>
-        <c:axId val="328902192"/>
+        <c:axId val="382022544"/>
+        <c:axId val="382023104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328901632"/>
+        <c:axId val="382022544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -8241,12 +8241,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328902192"/>
+        <c:crossAx val="382023104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328902192"/>
+        <c:axId val="382023104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8305,7 +8305,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328901632"/>
+        <c:crossAx val="382022544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9218,11 +9218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328816240"/>
-        <c:axId val="328816800"/>
+        <c:axId val="382028144"/>
+        <c:axId val="382028704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328816240"/>
+        <c:axId val="382028144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9279,12 +9279,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328816800"/>
+        <c:crossAx val="382028704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328816800"/>
+        <c:axId val="382028704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9341,7 +9341,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328816240"/>
+        <c:crossAx val="382028144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10295,11 +10295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328662256"/>
-        <c:axId val="328662816"/>
+        <c:axId val="382033744"/>
+        <c:axId val="382034304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328662256"/>
+        <c:axId val="382033744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10356,12 +10356,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328662816"/>
+        <c:crossAx val="382034304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328662816"/>
+        <c:axId val="382034304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -10419,7 +10419,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328662256"/>
+        <c:crossAx val="382033744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15284,10 +15284,10 @@
             <v>2.0090750205753558</v>
           </cell>
           <cell r="AS3">
-            <v>3.5106196281815254E-3</v>
+            <v>2.8682409254225123E-3</v>
           </cell>
           <cell r="AU3">
-            <v>0.29796729341295891</v>
+            <v>0.24344476927770284</v>
           </cell>
         </row>
         <row r="4">
@@ -15319,10 +15319,10 @@
             <v>1.8443558894483842</v>
           </cell>
           <cell r="AS4">
-            <v>-0.11670548030683139</v>
+            <v>-9.5350527909666277E-2</v>
           </cell>
           <cell r="AU4">
-            <v>1.2712463511617844</v>
+            <v>1.0386316937973123</v>
           </cell>
         </row>
         <row r="5">
@@ -15354,10 +15354,10 @@
             <v>1.7322564764106896</v>
           </cell>
           <cell r="AS5">
-            <v>-0.38220057421618969</v>
+            <v>-0.31226491183686156</v>
           </cell>
           <cell r="AU5">
-            <v>2.4706762165856317</v>
+            <v>2.0185879954045931</v>
           </cell>
         </row>
         <row r="6">
@@ -15389,10 +15389,10 @@
             <v>1.6671504107658244</v>
           </cell>
           <cell r="AS6">
-            <v>-0.73881343323063542</v>
+            <v>-0.60362418885628366</v>
           </cell>
           <cell r="AU6">
-            <v>3.7408832337370073</v>
+            <v>3.0563705341638863</v>
           </cell>
         </row>
         <row r="7">
@@ -15424,10 +15424,10 @@
             <v>1.6235078267812537</v>
           </cell>
           <cell r="AS7">
-            <v>-1.1558493946142065</v>
+            <v>-0.94435025391075467</v>
           </cell>
           <cell r="AU7">
-            <v>5.0369301902511197</v>
+            <v>4.1152647795278137</v>
           </cell>
         </row>
         <row r="8">
@@ -15459,10 +15459,10 @@
             <v>1.5909360061713129</v>
           </cell>
           <cell r="AS8">
-            <v>-1.628335976484633</v>
+            <v>-1.3303804976759379</v>
           </cell>
           <cell r="AU8">
-            <v>6.3751193265171802</v>
+            <v>5.2085899622911489</v>
           </cell>
         </row>
         <row r="9">
@@ -15494,10 +15494,10 @@
             <v>1.5660912330976451</v>
           </cell>
           <cell r="AS9">
-            <v>-2.090981331089766</v>
+            <v>-1.7083702774238561</v>
           </cell>
           <cell r="AU9">
-            <v>7.6010708250903374</v>
+            <v>6.2102149268880735</v>
           </cell>
         </row>
         <row r="10">
@@ -15529,10 +15529,10 @@
             <v>1.5470482432552271</v>
           </cell>
           <cell r="AS10">
-            <v>-2.5487131184172211</v>
+            <v>-2.0823455821649923</v>
           </cell>
           <cell r="AU10">
-            <v>8.7562057984839399</v>
+            <v>7.1539814854971553</v>
           </cell>
         </row>
         <row r="11">
@@ -15564,10 +15564,10 @@
             <v>1.5317723436675272</v>
           </cell>
           <cell r="AS11">
-            <v>-2.988162461318324</v>
+            <v>-2.4413837929243494</v>
           </cell>
           <cell r="AU11">
-            <v>9.8239369535909162</v>
+            <v>8.0263375140005451</v>
           </cell>
         </row>
         <row r="12">
@@ -15599,10 +15599,10 @@
             <v>1.518649905691144</v>
           </cell>
           <cell r="AS12">
-            <v>-3.4565871564976316</v>
+            <v>-2.824095400415648</v>
           </cell>
           <cell r="AU12">
-            <v>10.926496242385863</v>
+            <v>8.9271487694952061</v>
           </cell>
         </row>
         <row r="13">
@@ -15750,10 +15750,10 @@
             <v>1.8160383272446403</v>
           </cell>
           <cell r="AS3">
-            <v>3.3666655414395487E-2</v>
+            <v>3.0759430459542176E-2</v>
           </cell>
           <cell r="AU3">
-            <v>0.1870230034961361</v>
+            <v>0.17087296019058407</v>
           </cell>
         </row>
         <row r="4">
@@ -15785,10 +15785,10 @@
             <v>1.6356216271168877</v>
           </cell>
           <cell r="AS4">
-            <v>5.0622531662948861E-2</v>
+            <v>4.6251111766410877E-2</v>
           </cell>
           <cell r="AU4">
-            <v>0.50321924373071303</v>
+            <v>0.45976462891587783</v>
           </cell>
         </row>
         <row r="5">
@@ -15820,10 +15820,10 @@
             <v>1.5440124208187311</v>
           </cell>
           <cell r="AS5">
-            <v>4.5007312528213772E-2</v>
+            <v>4.1120785027268236E-2</v>
           </cell>
           <cell r="AU5">
-            <v>0.91047520334820253</v>
+            <v>0.83185271473541234</v>
           </cell>
         </row>
         <row r="6">
@@ -15855,10 +15855,10 @@
             <v>1.4846589622644111</v>
           </cell>
           <cell r="AS6">
-            <v>1.6689816314390388E-2</v>
+            <v>1.5248596511476243E-2</v>
           </cell>
           <cell r="AU6">
-            <v>1.3913465683159183</v>
+            <v>1.2711992767459936</v>
           </cell>
         </row>
         <row r="7">
@@ -15890,10 +15890,10 @@
             <v>1.4417039812757488</v>
           </cell>
           <cell r="AS7">
-            <v>-3.2557338831289667E-2</v>
+            <v>-2.9745906963499543E-2</v>
           </cell>
           <cell r="AU7">
-            <v>1.9247892956008215</v>
+            <v>1.7585774933256082</v>
           </cell>
         </row>
         <row r="8">
@@ -15925,10 +15925,10 @@
             <v>1.4090597034444348</v>
           </cell>
           <cell r="AS8">
-            <v>-9.8709193020949951E-2</v>
+            <v>-9.0185333858473327E-2</v>
           </cell>
           <cell r="AU8">
-            <v>2.4843846231008935</v>
+            <v>2.2698499482176726</v>
           </cell>
         </row>
         <row r="9">
@@ -15960,10 +15960,10 @@
             <v>1.3831153210120573</v>
           </cell>
           <cell r="AS9">
-            <v>-0.18059729242374828</v>
+            <v>-0.16500213012292875</v>
           </cell>
           <cell r="AU9">
-            <v>3.0730175833354694</v>
+            <v>2.8076525420205591</v>
           </cell>
         </row>
         <row r="10">
@@ -15995,10 +15995,10 @@
             <v>1.3618524601923803</v>
           </cell>
           <cell r="AS10">
-            <v>-0.2736044192353333</v>
+            <v>-0.24997778969437234</v>
           </cell>
           <cell r="AU10">
-            <v>3.6674211850885996</v>
+            <v>3.3507274637191657</v>
           </cell>
         </row>
         <row r="11">
@@ -16030,10 +16030,10 @@
             <v>1.3442472387769562</v>
           </cell>
           <cell r="AS11">
-            <v>-0.3749287400336283</v>
+            <v>-0.34255242655963219</v>
           </cell>
           <cell r="AU11">
-            <v>4.2599526894221524</v>
+            <v>3.8920919496859727</v>
           </cell>
         </row>
         <row r="12">
@@ -16065,10 +16065,10 @@
             <v>1.329224375110359</v>
           </cell>
           <cell r="AS12">
-            <v>-0.48516008062138249</v>
+            <v>-0.44326493314920351</v>
           </cell>
           <cell r="AU12">
-            <v>4.8605962611954805</v>
+            <v>4.4408679997426947</v>
           </cell>
         </row>
         <row r="13">
@@ -16100,10 +16100,10 @@
             <v>1.3161821183565607</v>
           </cell>
           <cell r="AS13">
-            <v>-0.60060726262548048</v>
+            <v>-0.54874287632162666</v>
           </cell>
           <cell r="AU13">
-            <v>5.4542044396608009</v>
+            <v>4.9832161855358148</v>
           </cell>
         </row>
         <row r="14">
@@ -16135,10 +16135,10 @@
             <v>1.3049630913246724</v>
           </cell>
           <cell r="AS14">
-            <v>-0.71680831771382247</v>
+            <v>-0.65490959319089315</v>
           </cell>
           <cell r="AU14">
-            <v>6.0238615678182272</v>
+            <v>5.503681571944484</v>
           </cell>
         </row>
         <row r="15">
@@ -16170,10 +16170,10 @@
             <v>1.2951491902278758</v>
           </cell>
           <cell r="AS15">
-            <v>-0.83685945564802022</v>
+            <v>-0.76459392575743912</v>
           </cell>
           <cell r="AU15">
-            <v>6.589207193244909</v>
+            <v>6.0202077678755108</v>
           </cell>
         </row>
         <row r="16">
@@ -16205,10 +16205,10 @@
             <v>1.2864551675378204</v>
           </cell>
           <cell r="AS16">
-            <v>-0.95598127761086382</v>
+            <v>-0.87342919180270584</v>
           </cell>
           <cell r="AU16">
-            <v>7.1311498157812201</v>
+            <v>6.5153518861665054</v>
           </cell>
         </row>
         <row r="17">
@@ -16240,10 +16240,10 @@
             <v>1.2788189027392434</v>
           </cell>
           <cell r="AS17">
-            <v>-1.0732207890485583</v>
+            <v>-0.98054469094541197</v>
           </cell>
           <cell r="AU17">
-            <v>7.6490189707637661</v>
+            <v>6.988501358953644</v>
           </cell>
         </row>
         <row r="18">
@@ -16351,10 +16351,10 @@
             <v>1.9053060830494941</v>
           </cell>
           <cell r="AS3">
-            <v>-1.7223361727561365E-2</v>
+            <v>-1.7491989966976512E-2</v>
           </cell>
           <cell r="AU3">
-            <v>0.54906667845482926</v>
+            <v>0.55763032691602477</v>
           </cell>
         </row>
         <row r="4">
@@ -16386,10 +16386,10 @@
             <v>1.7404396115775711</v>
           </cell>
           <cell r="AS4">
-            <v>-0.16473540210151022</v>
+            <v>-0.16730473680723495</v>
           </cell>
           <cell r="AU4">
-            <v>1.4212778826799393</v>
+            <v>1.4434451797142367</v>
           </cell>
         </row>
         <row r="5">
@@ -16421,10 +16421,10 @@
             <v>1.6531141584289157</v>
           </cell>
           <cell r="AS5">
-            <v>-0.41676444099126086</v>
+            <v>-0.42326460627868939</v>
           </cell>
           <cell r="AU5">
-            <v>2.4434585127279789</v>
+            <v>2.4815684919957142</v>
           </cell>
         </row>
         <row r="6">
@@ -16456,10 +16456,10 @@
             <v>1.5974582636996595</v>
           </cell>
           <cell r="AS6">
-            <v>-0.75170010111758812</v>
+            <v>-0.76342416973586924</v>
           </cell>
           <cell r="AU6">
-            <v>3.5680085207934531</v>
+            <v>3.6236578105383939</v>
           </cell>
         </row>
         <row r="7">
@@ -16491,10 +16491,10 @@
             <v>1.5583485062903495</v>
           </cell>
           <cell r="AS7">
-            <v>-1.1272969128264572</v>
+            <v>-1.1448790660541928</v>
           </cell>
           <cell r="AU7">
-            <v>4.6896070662809306</v>
+            <v>4.7627496333181174</v>
           </cell>
         </row>
         <row r="8">
@@ -16526,10 +16526,10 @@
             <v>1.5290331594502045</v>
           </cell>
           <cell r="AS8">
-            <v>-1.5444862826730605</v>
+            <v>-1.5685752286917338</v>
           </cell>
           <cell r="AU8">
-            <v>5.8381799191885282</v>
+            <v>5.9292364746907467</v>
           </cell>
         </row>
         <row r="9">
@@ -16561,10 +16561,10 @@
             <v>1.5056348650184768</v>
           </cell>
           <cell r="AS9">
-            <v>-1.9857211363596043</v>
+            <v>-2.0166919062515314</v>
           </cell>
           <cell r="AU9">
-            <v>6.9805866503057725</v>
+            <v>7.0894610228944748</v>
           </cell>
         </row>
         <row r="10">
@@ -16596,10 +16596,10 @@
             <v>1.4865801781327825</v>
           </cell>
           <cell r="AS10">
-            <v>-2.4393048903386214</v>
+            <v>-2.4773500866512461</v>
           </cell>
           <cell r="AU10">
-            <v>8.099902431454252</v>
+            <v>8.2262344776606628</v>
           </cell>
         </row>
         <row r="11">
@@ -16631,10 +16631,10 @@
             <v>1.470995298159429</v>
           </cell>
           <cell r="AS11">
-            <v>-2.8811015772343125</v>
+            <v>-2.9260373601848708</v>
           </cell>
           <cell r="AU11">
-            <v>9.1494105801647176</v>
+            <v>9.2921115287201275</v>
           </cell>
         </row>
         <row r="12">
@@ -16666,10 +16666,10 @@
             <v>1.4584525263146098</v>
           </cell>
           <cell r="AS12">
-            <v>-3.2887267712509369</v>
+            <v>-3.3400201770594489</v>
           </cell>
           <cell r="AU12">
-            <v>10.08921760407131</v>
+            <v>10.246576475407149</v>
           </cell>
         </row>
         <row r="13">
@@ -16800,10 +16800,10 @@
             <v>1.8333349150238609</v>
           </cell>
           <cell r="AS3">
-            <v>3.3094942615051824E-2</v>
+            <v>2.7871047660741888E-2</v>
           </cell>
           <cell r="AU3">
-            <v>0.33264155303904169</v>
+            <v>0.2801355085135509</v>
           </cell>
         </row>
         <row r="4">
@@ -16829,10 +16829,10 @@
             <v>1.6545991032687406</v>
           </cell>
           <cell r="AS4">
-            <v>1.3438504169446887E-2</v>
+            <v>1.1317293840098303E-2</v>
           </cell>
           <cell r="AU4">
-            <v>0.89519459645539667</v>
+            <v>0.75389196330255914</v>
           </cell>
         </row>
         <row r="5">
@@ -16858,10 +16858,10 @@
             <v>1.5643844234460931</v>
           </cell>
           <cell r="AS5">
-            <v>-6.0171925263494144E-2</v>
+            <v>-5.0674044562165434E-2</v>
           </cell>
           <cell r="AU5">
-            <v>1.5850427169690464</v>
+            <v>1.3348505124424708</v>
           </cell>
         </row>
         <row r="6">
@@ -16887,10 +16887,10 @@
             <v>1.5063561750312602</v>
           </cell>
           <cell r="AS6">
-            <v>-0.1862128965447909</v>
+            <v>-0.15681998832910013</v>
           </cell>
           <cell r="AU6">
-            <v>2.4005630198125325</v>
+            <v>2.0216444281544126</v>
           </cell>
         </row>
         <row r="7">
@@ -16916,10 +16916,10 @@
             <v>1.4641809111583908</v>
           </cell>
           <cell r="AS7">
-            <v>-0.35506812234389629</v>
+            <v>-0.29902213990109888</v>
           </cell>
           <cell r="AU7">
-            <v>3.288034657908824</v>
+            <v>2.7690324689993258</v>
           </cell>
         </row>
         <row r="8">
@@ -16945,10 +16945,10 @@
             <v>1.4322228418598042</v>
           </cell>
           <cell r="AS8">
-            <v>-0.55655891545878733</v>
+            <v>-0.46870847425817136</v>
           </cell>
           <cell r="AU8">
-            <v>4.2127277847859812</v>
+            <v>3.5477667460315008</v>
           </cell>
         </row>
         <row r="9">
@@ -16974,10 +16974,10 @@
             <v>1.406955906635972</v>
           </cell>
           <cell r="AS9">
-            <v>-0.78495638091406328</v>
+            <v>-0.66105437796133981</v>
           </cell>
           <cell r="AU9">
-            <v>5.1638935121123852</v>
+            <v>4.3487950369076263</v>
           </cell>
         </row>
         <row r="10">
@@ -17003,10 +17003,10 @@
             <v>1.3862244629844778</v>
           </cell>
           <cell r="AS10">
-            <v>-1.0355006132238735</v>
+            <v>-0.87205127622019407</v>
           </cell>
           <cell r="AU10">
-            <v>6.1326701331973368</v>
+            <v>5.164654417385627</v>
           </cell>
         </row>
         <row r="11">
@@ -17032,10 +17032,10 @@
             <v>1.3688997705380646</v>
           </cell>
           <cell r="AS11">
-            <v>-1.2996818988679488</v>
+            <v>-1.0945326773486352</v>
           </cell>
           <cell r="AU11">
-            <v>7.0959065710496141</v>
+            <v>5.9758481088269928</v>
           </cell>
         </row>
         <row r="12">
@@ -17061,10 +17061,10 @@
             <v>1.3542817906462632</v>
           </cell>
           <cell r="AS12">
-            <v>-1.5718910474503192</v>
+            <v>-1.3237747776319184</v>
           </cell>
           <cell r="AU12">
-            <v>8.042378926773166</v>
+            <v>6.772923856707223</v>
           </cell>
         </row>
         <row r="13">
@@ -17090,10 +17090,10 @@
             <v>1.3417561426741769</v>
           </cell>
           <cell r="AS13">
-            <v>-1.8496816696096254</v>
+            <v>-1.5577173397920927</v>
           </cell>
           <cell r="AU13">
-            <v>8.9710135477321469</v>
+            <v>7.5549774798608516</v>
           </cell>
         </row>
         <row r="14">
@@ -17119,10 +17119,10 @@
             <v>1.3310353500514012</v>
           </cell>
           <cell r="AS14">
-            <v>-2.1205873565211131</v>
+            <v>-1.7858617242468373</v>
           </cell>
           <cell r="AU14">
-            <v>9.8474746867837304</v>
+            <v>8.2930929817800134</v>
           </cell>
         </row>
         <row r="15">
@@ -17148,10 +17148,10 @@
             <v>1.321816061075151</v>
           </cell>
           <cell r="AS15">
-            <v>-2.3883239876832785</v>
+            <v>-2.011337274830006</v>
           </cell>
           <cell r="AU15">
-            <v>10.690188309700684</v>
+            <v>9.0027878684541083</v>
           </cell>
         </row>
         <row r="16">
@@ -17177,10 +17177,10 @@
             <v>1.3139888388488756</v>
           </cell>
           <cell r="AS16">
-            <v>-2.6321912775162115</v>
+            <v>-2.2167111573862601</v>
           </cell>
           <cell r="AU16">
-            <v>11.440392093061639</v>
+            <v>9.6345751975492941</v>
           </cell>
         </row>
       </sheetData>
@@ -17243,10 +17243,10 @@
             <v>1.80535157822694</v>
           </cell>
           <cell r="AS3">
-            <v>2.4314256458514236E-2</v>
+            <v>2.6582036022260381E-2</v>
           </cell>
           <cell r="AU3">
-            <v>9.8958542774297914E-2</v>
+            <v>0.10818836073498929</v>
           </cell>
         </row>
         <row r="4">
@@ -17272,10 +17272,10 @@
             <v>1.6235399819788612</v>
           </cell>
           <cell r="AS4">
-            <v>4.5567185339419364E-2</v>
+            <v>4.9817215845862517E-2</v>
           </cell>
           <cell r="AU4">
-            <v>0.26760788235180755</v>
+            <v>0.29256754697203885</v>
           </cell>
         </row>
         <row r="5">
@@ -17301,10 +17301,10 @@
             <v>1.530953324207476</v>
           </cell>
           <cell r="AS5">
-            <v>5.9450077126623126E-2</v>
+            <v>6.499495859157442E-2</v>
           </cell>
           <cell r="AU5">
-            <v>0.48993378567090973</v>
+            <v>0.53562968546652956</v>
           </cell>
         </row>
         <row r="6">
@@ -17330,10 +17330,10 @@
             <v>1.4707244592370008</v>
           </cell>
           <cell r="AS6">
-            <v>6.4713841244100331E-2</v>
+            <v>7.0749671577439291E-2</v>
           </cell>
           <cell r="AU6">
-            <v>0.7541829787223977</v>
+            <v>0.82452527972551692</v>
           </cell>
         </row>
         <row r="7">
@@ -17359,10 +17359,10 @@
             <v>1.4273635832401048</v>
           </cell>
           <cell r="AS7">
-            <v>6.1392624231301839E-2</v>
+            <v>6.7118686175003162E-2</v>
           </cell>
           <cell r="AU7">
-            <v>1.0469728369402738</v>
+            <v>1.1446235139190901</v>
           </cell>
         </row>
         <row r="8">
@@ -17388,10 +17388,10 @@
             <v>1.3943094247322672</v>
           </cell>
           <cell r="AS8">
-            <v>5.0257400111916053E-2</v>
+            <v>5.4944884802031094E-2</v>
           </cell>
           <cell r="AU8">
-            <v>1.3599743312946466</v>
+            <v>1.4868185142945074</v>
           </cell>
         </row>
         <row r="9">
@@ -17417,10 +17417,10 @@
             <v>1.367903658004811</v>
           </cell>
           <cell r="AS9">
-            <v>3.2033283522961184E-2</v>
+            <v>3.5021013205627213E-2</v>
           </cell>
           <cell r="AU9">
-            <v>1.6901125423582277</v>
+            <v>1.8477485650978362</v>
           </cell>
         </row>
         <row r="10">
@@ -17446,10 +17446,10 @@
             <v>1.3462471260541777</v>
           </cell>
           <cell r="AS10">
-            <v>7.9615912043659275E-3</v>
+            <v>8.7041651695195892E-3</v>
           </cell>
           <cell r="AU10">
-            <v>2.0268475556845562</v>
+            <v>2.2158906988895666</v>
           </cell>
         </row>
         <row r="11">
@@ -17475,10 +17475,10 @@
             <v>1.3281775970539018</v>
           </cell>
           <cell r="AS11">
-            <v>-2.111671002354161E-2</v>
+            <v>-2.3086255895801749E-2</v>
           </cell>
           <cell r="AU11">
-            <v>2.3681075215615404</v>
+            <v>2.5889798254838845</v>
           </cell>
         </row>
         <row r="12">
@@ -17504,10 +17504,10 @@
             <v>1.3128555638706789</v>
           </cell>
           <cell r="AS12">
-            <v>-5.3991595640287139E-2</v>
+            <v>-5.9027367037039549E-2</v>
           </cell>
           <cell r="AU12">
-            <v>2.7072118196369415</v>
+            <v>2.9597122261280804</v>
           </cell>
         </row>
         <row r="13">
@@ -17533,10 +17533,10 @@
             <v>1.299624236942982</v>
           </cell>
           <cell r="AS13">
-            <v>-9.0519525294777942E-2</v>
+            <v>-9.8962239960297405E-2</v>
           </cell>
           <cell r="AU13">
-            <v>3.0480860193470285</v>
+            <v>3.332379606321799</v>
           </cell>
         </row>
         <row r="14">
@@ -17562,10 +17562,10 @@
             <v>1.2879526989524848</v>
           </cell>
           <cell r="AS14">
-            <v>-0.13019332125954503</v>
+            <v>-0.14233639270375709</v>
           </cell>
           <cell r="AU14">
-            <v>3.3894240100751221</v>
+            <v>3.7055540351093539</v>
           </cell>
         </row>
         <row r="15">
@@ -17591,10 +17591,10 @@
             <v>1.2777264128670414</v>
           </cell>
           <cell r="AS15">
-            <v>-0.17101219365716663</v>
+            <v>-0.18696242263450874</v>
           </cell>
           <cell r="AU15">
-            <v>3.7180088097530235</v>
+            <v>4.0647857885585363</v>
           </cell>
         </row>
         <row r="16">
@@ -17620,10 +17620,10 @@
             <v>1.2687561598004613</v>
           </cell>
           <cell r="AS16">
-            <v>-0.21323485185281424</v>
+            <v>-0.23312316882172224</v>
           </cell>
           <cell r="AU16">
-            <v>4.0396353975410078</v>
+            <v>4.4164103408817503</v>
           </cell>
         </row>
         <row r="17">
@@ -17649,10 +17649,10 @@
             <v>1.2607418217171571</v>
           </cell>
           <cell r="AS17">
-            <v>-0.2564517370456752</v>
+            <v>-0.28037087310281461</v>
           </cell>
           <cell r="AU17">
-            <v>4.3536885520424722</v>
+            <v>4.7597550892645089</v>
           </cell>
         </row>
         <row r="18">
@@ -17678,10 +17678,10 @@
             <v>1.2535900285927311</v>
           </cell>
           <cell r="AS18">
-            <v>-0.2995815704188779</v>
+            <v>-0.32752340628089965</v>
           </cell>
           <cell r="AU18">
-            <v>4.6546951463774295</v>
+            <v>5.0888364307894678</v>
           </cell>
         </row>
       </sheetData>
@@ -18507,8 +18507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="AT7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3:AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18950,7 +18950,7 @@
         <v>-0.19270634031514058</v>
       </c>
       <c r="AO3" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP3" s="3">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -18962,19 +18962,19 @@
       </c>
       <c r="AR3" s="3">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.662677166467258E-3</v>
+        <v>2.6394188340114998E-3</v>
       </c>
       <c r="AS3" s="3">
         <f>(AS2+AR3)</f>
-        <v>2.662677166467258E-3</v>
+        <v>2.6394188340114998E-3</v>
       </c>
       <c r="AT3" s="3">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.48245731141774911</v>
+        <v>0.47824307445129288</v>
       </c>
       <c r="AU3" s="3">
         <f>AU2+AT3</f>
-        <v>0.48245731141774911</v>
+        <v>0.47824307445129288</v>
       </c>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
@@ -19125,7 +19125,7 @@
         <v>-0.23343627061780139</v>
       </c>
       <c r="AO4" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP4">
         <f>(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
@@ -19137,19 +19137,19 @@
       </c>
       <c r="AR4" s="3">
         <f>(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-0.10722672122875655</v>
+        <v>-0.10629010196379768</v>
       </c>
       <c r="AS4">
         <f>AS3+AR4</f>
-        <v>-0.10456404406228929</v>
+        <v>-0.10365068312978618</v>
       </c>
       <c r="AT4" s="3">
         <f>2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.79270659782986985</v>
+        <v>0.78578235112644323</v>
       </c>
       <c r="AU4">
         <f>AU3+AT4</f>
-        <v>1.275163909247619</v>
+        <v>1.2640254255777361</v>
       </c>
       <c r="BJ4" s="1">
         <v>1.3664000000000001</v>
@@ -19293,7 +19293,7 @@
         <v>-0.25564598234380426</v>
       </c>
       <c r="AO5" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP5">
         <f t="shared" ref="AP5:AP18" si="13">(AK5*1.35*(AK5/3255000)^-0.0723-AK4*1.35*(AK4/3255000)^-0.0723)/(AK5-AK4)</f>
@@ -19305,19 +19305,19 @@
       </c>
       <c r="AR5" s="3">
         <f t="shared" ref="AR5:AR18" si="14">(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
-        <v>-0.19663953164296752</v>
+        <v>-0.19492189660313103</v>
       </c>
       <c r="AS5">
         <f t="shared" ref="AS5:AS18" si="15">AS4+AR5</f>
-        <v>-0.3012035757052568</v>
+        <v>-0.29857257973291718</v>
       </c>
       <c r="AT5" s="3">
         <f t="shared" ref="AT5:AT18" si="16">2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
-        <v>0.93051393967166407</v>
+        <v>0.92238595373474519</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>2.205677848919283</v>
+        <v>2.1864113793124815</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.2961</v>
@@ -19461,7 +19461,7 @@
         <v>-0.2702438354025759</v>
       </c>
       <c r="AO6" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP6">
         <f t="shared" si="13"/>
@@ -19473,19 +19473,19 @@
       </c>
       <c r="AR6" s="3">
         <f t="shared" si="14"/>
-        <v>-0.27573721522152622</v>
+        <v>-0.27332866644857973</v>
       </c>
       <c r="AS6">
         <f t="shared" si="15"/>
-        <v>-0.57694079092678296</v>
+        <v>-0.57190124618149696</v>
       </c>
       <c r="AT6" s="3">
         <f t="shared" si="16"/>
-        <v>1.0547905518630969</v>
+        <v>1.0455770168407592</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
-        <v>3.2604684007823801</v>
+        <v>3.2319883961532407</v>
       </c>
       <c r="BJ6" s="1">
         <v>1.2944</v>
@@ -19629,7 +19629,7 @@
         <v>-0.28101492754865354</v>
       </c>
       <c r="AO7" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP7">
         <f t="shared" si="13"/>
@@ -19641,19 +19641,19 @@
       </c>
       <c r="AR7" s="3">
         <f t="shared" si="14"/>
-        <v>-0.33392950725177695</v>
+        <v>-0.33101265214284398</v>
       </c>
       <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-0.91087029817855991</v>
+        <v>-0.90291389832434099</v>
       </c>
       <c r="AT7" s="3">
         <f t="shared" si="16"/>
-        <v>1.1184531801935185</v>
+        <v>1.1086835557611074</v>
       </c>
       <c r="AU7">
         <f t="shared" si="17"/>
-        <v>4.3789215809758986</v>
+        <v>4.3406719519143486</v>
       </c>
       <c r="BJ7" s="1">
         <v>1.2937000000000001</v>
@@ -19797,7 +19797,7 @@
         <v>-0.28925574289614941</v>
       </c>
       <c r="AO8" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP8">
         <f t="shared" si="13"/>
@@ -19809,19 +19809,19 @@
       </c>
       <c r="AR8" s="3">
         <f t="shared" si="14"/>
-        <v>-0.36930552537188921</v>
+        <v>-0.3660796627720142</v>
       </c>
       <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-1.280175823550449</v>
+        <v>-1.2689935610963552</v>
       </c>
       <c r="AT8" s="3">
         <f t="shared" si="16"/>
-        <v>1.1288233631555913</v>
+        <v>1.1189631557693038</v>
       </c>
       <c r="AU8">
         <f t="shared" si="17"/>
-        <v>5.5077449441314901</v>
+        <v>5.4596351076836527</v>
       </c>
       <c r="BJ8" s="1">
         <v>1.3320000000000001</v>
@@ -19965,7 +19965,7 @@
         <v>-0.29587088095897601</v>
       </c>
       <c r="AO9" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP9">
         <f t="shared" si="13"/>
@@ -19977,19 +19977,19 @@
       </c>
       <c r="AR9" s="3">
         <f t="shared" si="14"/>
-        <v>-0.40794857330377188</v>
+        <v>-0.4043851658947768</v>
       </c>
       <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-1.6881243968542208</v>
+        <v>-1.673378726991132</v>
       </c>
       <c r="AT9" s="3">
         <f t="shared" si="16"/>
-        <v>1.1647088844992131</v>
+        <v>1.1545352191405247</v>
       </c>
       <c r="AU9">
         <f t="shared" si="17"/>
-        <v>6.6724538286307027</v>
+        <v>6.6141703268241772</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.3442000000000001</v>
@@ -20133,7 +20133,7 @@
         <v>-0.30139883779844068</v>
       </c>
       <c r="AO10" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP10">
         <f t="shared" si="13"/>
@@ -20145,19 +20145,19 @@
       </c>
       <c r="AR10" s="3">
         <f t="shared" si="14"/>
-        <v>-0.43316780710663422</v>
+        <v>-0.42938411113564096</v>
       </c>
       <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-2.1212922039608548</v>
+        <v>-2.1027628381267731</v>
       </c>
       <c r="AT10" s="3">
         <f t="shared" si="16"/>
-        <v>1.1717409752638166</v>
+        <v>1.1615058849952962</v>
       </c>
       <c r="AU10">
         <f t="shared" si="17"/>
-        <v>7.8441948038945188</v>
+        <v>7.7756762118194729</v>
       </c>
       <c r="BJ10" s="1">
         <f>AVERAGE(BJ4:BJ9)</f>
@@ -20303,7 +20303,7 @@
         <v>-0.30598241062350739</v>
       </c>
       <c r="AO11" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP11">
         <f t="shared" si="13"/>
@@ -20315,19 +20315,19 @@
       </c>
       <c r="AR11" s="3">
         <f t="shared" si="14"/>
-        <v>-0.43085168304586019</v>
+        <v>-0.42708821828580479</v>
       </c>
       <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-2.5521438870067152</v>
+        <v>-2.529851056412578</v>
       </c>
       <c r="AT11" s="3">
         <f t="shared" si="16"/>
-        <v>1.1165530291831196</v>
+        <v>1.1068000024608904</v>
       </c>
       <c r="AU11">
         <f t="shared" si="17"/>
-        <v>8.9607478330776384</v>
+        <v>8.8824762142803628</v>
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
@@ -20465,7 +20465,7 @@
         <v>-0.30979307506229375</v>
       </c>
       <c r="AO12" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP12">
         <f t="shared" si="13"/>
@@ -20477,19 +20477,19 @@
       </c>
       <c r="AR12" s="3">
         <f t="shared" si="14"/>
-        <v>-0.42832344998566463</v>
+        <v>-0.42458206919650143</v>
       </c>
       <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-2.9804673369923798</v>
+        <v>-2.9544331256090794</v>
       </c>
       <c r="AT12" s="3">
         <f t="shared" si="16"/>
-        <v>1.0723733513810731</v>
+        <v>1.0630062316125852</v>
       </c>
       <c r="AU12">
         <f t="shared" si="17"/>
-        <v>10.033121184458711</v>
+        <v>9.9454824458929476</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
@@ -20627,7 +20627,7 @@
         <v>-0.31301010063089441</v>
       </c>
       <c r="AO13" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP13">
         <f t="shared" si="13"/>
@@ -20639,19 +20639,19 @@
       </c>
       <c r="AR13" s="3">
         <f t="shared" si="14"/>
-        <v>-0.41397460129314922</v>
+        <v>-0.41035855687500788</v>
       </c>
       <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-3.3944419382855289</v>
+        <v>-3.3647916824840873</v>
       </c>
       <c r="AT13" s="3">
         <f t="shared" si="16"/>
-        <v>1.0074736628011522</v>
+        <v>0.99867343809312326</v>
       </c>
       <c r="AU13">
         <f t="shared" si="17"/>
-        <v>11.040594847259863</v>
+        <v>10.94415588398607</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
@@ -20789,7 +20789,7 @@
         <v>-0.31560691561726195</v>
       </c>
       <c r="AO14" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP14">
         <f t="shared" si="13"/>
@@ -20801,19 +20801,19 @@
       </c>
       <c r="AR14" s="3">
         <f t="shared" si="14"/>
-        <v>-0.35478528198897669</v>
+        <v>-0.35168625288292193</v>
       </c>
       <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-3.7492272202745056</v>
+        <v>-3.7164779353670094</v>
       </c>
       <c r="AT14" s="3">
         <f t="shared" si="16"/>
-        <v>0.84429031337621219</v>
+        <v>0.83691548587366005</v>
       </c>
       <c r="AU14">
         <f t="shared" si="17"/>
-        <v>11.884885160636076</v>
+        <v>11.781071369859731</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
@@ -20951,7 +20951,7 @@
         <v>-0.31688141847262458</v>
       </c>
       <c r="AO15" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP15">
         <f t="shared" si="13"/>
@@ -20963,19 +20963,19 @@
       </c>
       <c r="AR15" s="3">
         <f t="shared" si="14"/>
-        <v>-5.2313816812364355E-2</v>
+        <v>-5.1856858620520946E-2</v>
       </c>
       <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-3.8015410370868699</v>
+        <v>-3.7683347939875302</v>
       </c>
       <c r="AT15" s="3">
         <f t="shared" si="16"/>
-        <v>0.12314862566266457</v>
+        <v>0.12207292947493179</v>
       </c>
       <c r="AU15">
         <f t="shared" si="17"/>
-        <v>12.008033786298741</v>
+        <v>11.903144299334663</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
@@ -21113,7 +21113,7 @@
         <v>-0.31583698499320423</v>
       </c>
       <c r="AO16" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP16">
         <f t="shared" si="13"/>
@@ -21125,19 +21125,19 @@
       </c>
       <c r="AR16" s="3">
         <f t="shared" si="14"/>
-        <v>0.3862790821909276</v>
+        <v>0.38290495654496298</v>
       </c>
       <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-3.4152619548959424</v>
+        <v>-3.3854298374425671</v>
       </c>
       <c r="AT16" s="3">
         <f t="shared" si="16"/>
-        <v>-0.91743128965281906</v>
+        <v>-0.90941757991407102</v>
       </c>
       <c r="AU16">
         <f t="shared" si="17"/>
-        <v>11.090602496645921</v>
+        <v>10.993726719420591</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -21275,7 +21275,7 @@
         <v>-0.3140789892747291</v>
       </c>
       <c r="AO17" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP17">
         <f t="shared" si="13"/>
@@ -21287,19 +21287,19 @@
       </c>
       <c r="AR17" s="3">
         <f t="shared" si="14"/>
-        <v>0.15359102767694324</v>
+        <v>0.15224941885221613</v>
       </c>
       <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-3.261670927218999</v>
+        <v>-3.2331804185903508</v>
       </c>
       <c r="AT17" s="3">
         <f t="shared" si="16"/>
-        <v>-0.37033742430680339</v>
+        <v>-0.36710254812886822</v>
       </c>
       <c r="AU17">
         <f t="shared" si="17"/>
-        <v>10.720265072339117</v>
+        <v>10.626624171291724</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -21437,7 +21437,7 @@
         <v>-0.31283166168466414</v>
       </c>
       <c r="AO18" s="3">
-        <v>71011.093371362236</v>
+        <v>71636.837037504025</v>
       </c>
       <c r="AP18">
         <f t="shared" si="13"/>
@@ -21449,19 +21449,19 @@
       </c>
       <c r="AR18" s="3">
         <f t="shared" si="14"/>
-        <v>0.20259817831047322</v>
+        <v>0.20082849483347559</v>
       </c>
       <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-3.0590727489085259</v>
+        <v>-3.0323519237568752</v>
       </c>
       <c r="AT18" s="3">
         <f t="shared" si="16"/>
-        <v>-0.49382266826242405</v>
+        <v>-0.48950915555525809</v>
       </c>
       <c r="AU18">
         <f t="shared" si="17"/>
-        <v>10.226442404076693</v>
+        <v>10.137115015736466</v>
       </c>
     </row>
   </sheetData>
